--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_11_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_11_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>443209.7974361774</v>
+        <v>438431.4199488749</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9353444.92242044</v>
+        <v>9353444.922420442</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20007282.53599965</v>
+        <v>20007282.53599967</v>
       </c>
     </row>
     <row r="9">
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>48.0945758370945</v>
+        <v>42.36170239731287</v>
       </c>
       <c r="D11" t="n">
-        <v>42.36170239731284</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>48.0945758370945</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>48.0945758370945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1500,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>42.36170239731283</v>
+        <v>42.36170239731286</v>
       </c>
       <c r="U12" t="n">
-        <v>48.0945758370945</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="W12" t="n">
-        <v>48.0945758370945</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="X12" t="n">
-        <v>48.0945758370945</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.02411577902643</v>
       </c>
       <c r="J13" t="n">
-        <v>11.55298738140348</v>
+        <v>46.6234474394716</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.80871501590937</v>
+        <v>30.80871501590936</v>
       </c>
       <c r="R13" t="n">
-        <v>48.0945758370945</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="S13" t="n">
-        <v>48.0945758370945</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="T13" t="n">
-        <v>48.0945758370945</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>48.09457583709451</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>42.36170239731286</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>42.36170239731283</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>48.09457583709451</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>48.09457583709451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>48.09457583709451</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>48.09457583709451</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>48.09457583709451</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>42.36170239731283</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>42.36170239731285</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>42.36170239731286</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>48.09457583709451</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>48.09457583709451</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>48.09457583709451</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>42.36170239731283</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1847,19 +1847,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>50.77913943137563</v>
-      </c>
-      <c r="E17" t="n">
-        <v>57.65115739256998</v>
-      </c>
-      <c r="F17" t="n">
-        <v>57.65115739256998</v>
       </c>
       <c r="G17" t="n">
         <v>57.65115739256998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>57.65115739256998</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>57.65115739256998</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>50.77913943137563</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>57.65115739256998</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>57.65115739256998</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>57.65115739256998</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>57.65115739256998</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>57.65115739256998</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>50.77913943137563</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.65115739256998</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,61 +2014,61 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>50.77913943137563</v>
-      </c>
-      <c r="H19" t="n">
-        <v>57.65115739256998</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>57.65115739256998</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>57.65115739256998</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>139.3111365004108</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>139.3111365004108</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,25 +2126,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>57.29795737564316</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>139.3111365004108</v>
       </c>
       <c r="T20" t="n">
-        <v>65.40729165391856</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>139.3111365004108</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>139.3111365004108</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>122.7052490295619</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>136.5550279193172</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>63.21227109504657</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>62.24908651560897</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>125.4613576106554</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>139.3111365004108</v>
       </c>
-      <c r="U21" t="n">
+      <c r="Y21" t="n">
         <v>139.3111365004108</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>122.7052490295619</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.7052490295618</v>
+        <v>139.3111365004108</v>
       </c>
       <c r="S22" t="n">
-        <v>139.3111365004108</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>139.3111365004108</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>139.3111365004108</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,73 +2318,73 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>147.737043781761</v>
+      </c>
+      <c r="V23" t="n">
         <v>167.7305220047242</v>
       </c>
-      <c r="F23" t="n">
-        <v>147.737043781761</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>167.7305220047242</v>
       </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,25 +2394,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>158.4302365593529</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.5550279193172</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>45.12610537796426</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>157.0373292271323</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.72760410349665</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3299364634488</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.349900222715</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>35.39376244026923</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,64 +2564,64 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>147.737043781761</v>
+      </c>
+      <c r="Y26" t="n">
         <v>167.7305220047242</v>
-      </c>
-      <c r="G26" t="n">
-        <v>147.737043781761</v>
-      </c>
-      <c r="H26" t="n">
-        <v>167.7305220047242</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>167.7305220047242</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>11.18201586244383</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5550279193172</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>11.57475812130241</v>
       </c>
     </row>
     <row r="28">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>11.38647899292948</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3299364634488</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.349900222715</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>147.737043781761</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>161.8057914760906</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>153.6617743103945</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>147.737043781761</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
         <v>147.737043781761</v>
-      </c>
-      <c r="U30" t="n">
-        <v>167.7305220047242</v>
-      </c>
-      <c r="V30" t="n">
-        <v>167.7305220047242</v>
       </c>
       <c r="W30" t="n">
         <v>167.7305220047242</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>167.7305220047242</v>
       </c>
     </row>
     <row r="31">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.2207446878573</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,16 +2962,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3299364634488</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.349900222715</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>135.5711122300509</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>46.6234474394716</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>30.80871501590936</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>114.2454984243377</v>
       </c>
       <c r="S31" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3035,19 +3035,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>147.7370437817609</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="F32" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>167.7305220047242</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>147.7370437817609</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.5550279193172</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>11.1820158624438</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>167.7305220047242</v>
       </c>
       <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>167.7305220047242</v>
       </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
       <c r="Y33" t="n">
-        <v>147.737043781761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3299364634488</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.349900222715</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>147.5704990251781</v>
       </c>
       <c r="S34" t="n">
-        <v>35.39376244026917</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>0.1665447565829257</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>105.3753413844481</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,22 +3311,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>57.29795737564316</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>48.07738400880496</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="C36" t="n">
-        <v>54.17300607634914</v>
+        <v>105.3753413844481</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>51.20233530809902</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>119.6359461676297</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>119.6359461676296</v>
       </c>
     </row>
     <row r="37">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>105.3753413844481</v>
       </c>
       <c r="C37" t="n">
-        <v>105.3753413844481</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,73 +3500,73 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>119.6359461676296</v>
+      </c>
+      <c r="G38" t="n">
+        <v>119.6359461676296</v>
+      </c>
+      <c r="H38" t="n">
+        <v>119.6359461676296</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>105.3753413844481</v>
-      </c>
-      <c r="C38" t="n">
-        <v>119.6359461676297</v>
-      </c>
-      <c r="D38" t="n">
-        <v>119.6359461676297</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>119.6359461676297</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>105.3753413844481</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>104.620298117841</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7550432666070993</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="U39" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>119.6359461676296</v>
       </c>
     </row>
     <row r="40">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>105.3753413844481</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,19 +3703,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>30.80871501590936</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>74.56662636853873</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.95790435038529</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>110.0793646121541</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>110.0793646121541</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>110.0793646121541</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>110.0793646121542</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>96.95790435038535</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>110.0793646121542</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>110.0793646121542</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>110.0793646121542</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3828,64 +3828,64 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>110.0793646121541</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>110.0793646121542</v>
+      </c>
+      <c r="X42" t="n">
         <v>96.95790435038532</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>110.0793646121541</v>
-      </c>
-      <c r="W42" t="n">
-        <v>110.0793646121541</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>110.0793646121542</v>
       </c>
     </row>
     <row r="43">
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>110.0793646121542</v>
       </c>
       <c r="G43" t="n">
-        <v>110.0793646121541</v>
+        <v>110.0793646121542</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.80871501590936</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0793646121541</v>
+        <v>96.95790435038535</v>
       </c>
       <c r="U43" t="n">
-        <v>66.14918933447593</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>110.0793646121541</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>110.0793646121542</v>
       </c>
     </row>
     <row r="44">
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>28.41938550431334</v>
       </c>
       <c r="F44" t="n">
         <v>28.41938550431334</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>28.41938550431334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>28.41938550431334</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>25.03179475219919</v>
       </c>
       <c r="Y44" t="n">
-        <v>28.41938550431334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,25 +4056,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>25.03179475219919</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>28.41938550431334</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>28.41938550431334</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>28.41938550431334</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>25.03179475219919</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>28.41938550431334</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>28.41938550431334</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>28.41938550431334</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.03179475219919</v>
+        <v>28.41938550431334</v>
       </c>
       <c r="C46" t="n">
         <v>28.41938550431334</v>
@@ -4141,61 +4141,61 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>25.03179475219919</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>28.41938550431334</v>
-      </c>
-      <c r="F46" t="n">
-        <v>28.41938550431334</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.21754408152043</v>
+        <v>95.21754408152049</v>
       </c>
       <c r="C11" t="n">
-        <v>46.63716444809165</v>
+        <v>52.42794570039637</v>
       </c>
       <c r="D11" t="n">
-        <v>3.84756606696756</v>
+        <v>52.42794570039637</v>
       </c>
       <c r="E11" t="n">
-        <v>3.84756606696756</v>
+        <v>52.42794570039637</v>
       </c>
       <c r="F11" t="n">
-        <v>3.84756606696756</v>
+        <v>52.42794570039637</v>
       </c>
       <c r="G11" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="H11" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="I11" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="J11" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="K11" t="n">
-        <v>3.84756606696756</v>
+        <v>51.46119614569114</v>
       </c>
       <c r="L11" t="n">
-        <v>3.84756606696756</v>
+        <v>93.54183949830318</v>
       </c>
       <c r="M11" t="n">
-        <v>49.53741311220731</v>
+        <v>141.1554695770268</v>
       </c>
       <c r="N11" t="n">
-        <v>97.15104319093086</v>
+        <v>174.3597264204523</v>
       </c>
       <c r="O11" t="n">
-        <v>144.7646732696544</v>
+        <v>192.3783033483781</v>
       </c>
       <c r="P11" t="n">
-        <v>144.7646732696544</v>
+        <v>192.3783033483781</v>
       </c>
       <c r="Q11" t="n">
-        <v>192.378303348378</v>
+        <v>192.3783033483781</v>
       </c>
       <c r="R11" t="n">
-        <v>192.378303348378</v>
+        <v>143.7979237149493</v>
       </c>
       <c r="S11" t="n">
-        <v>192.378303348378</v>
+        <v>95.21754408152049</v>
       </c>
       <c r="T11" t="n">
-        <v>192.378303348378</v>
+        <v>95.21754408152049</v>
       </c>
       <c r="U11" t="n">
-        <v>192.378303348378</v>
+        <v>95.21754408152049</v>
       </c>
       <c r="V11" t="n">
-        <v>192.378303348378</v>
+        <v>95.21754408152049</v>
       </c>
       <c r="W11" t="n">
-        <v>192.378303348378</v>
+        <v>95.21754408152049</v>
       </c>
       <c r="X11" t="n">
-        <v>143.7979237149492</v>
+        <v>95.21754408152049</v>
       </c>
       <c r="Y11" t="n">
-        <v>95.21754408152043</v>
+        <v>95.21754408152049</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="C12" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="D12" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="E12" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="F12" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="G12" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="H12" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="I12" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="J12" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="K12" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="L12" t="n">
         <v>36.16916174610743</v>
       </c>
       <c r="M12" t="n">
-        <v>83.78279182483098</v>
+        <v>83.78279182483101</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3964219035545</v>
+        <v>131.3964219035546</v>
       </c>
       <c r="O12" t="n">
-        <v>175.951772593706</v>
+        <v>175.9517725937061</v>
       </c>
       <c r="P12" t="n">
-        <v>192.378303348378</v>
+        <v>192.3783033483781</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.378303348378</v>
+        <v>192.3783033483781</v>
       </c>
       <c r="R12" t="n">
-        <v>192.378303348378</v>
+        <v>192.3783033483781</v>
       </c>
       <c r="S12" t="n">
-        <v>192.378303348378</v>
+        <v>192.3783033483781</v>
       </c>
       <c r="T12" t="n">
-        <v>149.5887049672539</v>
+        <v>149.588704967254</v>
       </c>
       <c r="U12" t="n">
-        <v>101.0083253338251</v>
+        <v>101.0083253338252</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0083253338251</v>
+        <v>52.42794570039637</v>
       </c>
       <c r="W12" t="n">
-        <v>52.42794570039634</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="X12" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.51725029060744</v>
+        <v>64.09762992403628</v>
       </c>
       <c r="C13" t="n">
-        <v>15.51725029060744</v>
+        <v>64.09762992403628</v>
       </c>
       <c r="D13" t="n">
-        <v>15.51725029060744</v>
+        <v>64.09762992403628</v>
       </c>
       <c r="E13" t="n">
-        <v>15.51725029060744</v>
+        <v>64.09762992403628</v>
       </c>
       <c r="F13" t="n">
-        <v>15.51725029060744</v>
+        <v>64.09762992403628</v>
       </c>
       <c r="G13" t="n">
-        <v>15.51725029060744</v>
+        <v>64.09762992403628</v>
       </c>
       <c r="H13" t="n">
-        <v>15.51725029060744</v>
+        <v>64.09762992403628</v>
       </c>
       <c r="I13" t="n">
-        <v>15.51725029060744</v>
+        <v>50.94195741996918</v>
       </c>
       <c r="J13" t="n">
-        <v>3.84756606696756</v>
+        <v>3.847566066967562</v>
       </c>
       <c r="K13" t="n">
-        <v>49.53741311220731</v>
+        <v>51.46119614569114</v>
       </c>
       <c r="L13" t="n">
-        <v>97.15104319093086</v>
+        <v>99.07482622441472</v>
       </c>
       <c r="M13" t="n">
-        <v>144.7646732696544</v>
+        <v>144.7646732696545</v>
       </c>
       <c r="N13" t="n">
-        <v>192.378303348378</v>
+        <v>144.7646732696545</v>
       </c>
       <c r="O13" t="n">
-        <v>192.378303348378</v>
+        <v>144.7646732696545</v>
       </c>
       <c r="P13" t="n">
-        <v>192.378303348378</v>
+        <v>192.3783033483781</v>
       </c>
       <c r="Q13" t="n">
-        <v>161.2583891908938</v>
+        <v>161.2583891908939</v>
       </c>
       <c r="R13" t="n">
-        <v>112.678009557465</v>
+        <v>112.6780095574651</v>
       </c>
       <c r="S13" t="n">
-        <v>64.09762992403623</v>
+        <v>64.09762992403628</v>
       </c>
       <c r="T13" t="n">
-        <v>15.51725029060744</v>
+        <v>64.09762992403628</v>
       </c>
       <c r="U13" t="n">
-        <v>15.51725029060744</v>
+        <v>64.09762992403628</v>
       </c>
       <c r="V13" t="n">
-        <v>15.51725029060744</v>
+        <v>64.09762992403628</v>
       </c>
       <c r="W13" t="n">
-        <v>15.51725029060744</v>
+        <v>64.09762992403628</v>
       </c>
       <c r="X13" t="n">
-        <v>15.51725029060744</v>
+        <v>64.09762992403628</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.51725029060744</v>
+        <v>64.09762992403628</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52.42794570039636</v>
+        <v>52.42794570039639</v>
       </c>
       <c r="C14" t="n">
-        <v>52.42794570039636</v>
+        <v>52.42794570039639</v>
       </c>
       <c r="D14" t="n">
-        <v>52.42794570039636</v>
+        <v>52.42794570039639</v>
       </c>
       <c r="E14" t="n">
-        <v>3.847566066967561</v>
+        <v>52.42794570039639</v>
       </c>
       <c r="F14" t="n">
-        <v>3.847566066967561</v>
+        <v>52.42794570039639</v>
       </c>
       <c r="G14" t="n">
-        <v>3.847566066967561</v>
+        <v>52.42794570039639</v>
       </c>
       <c r="H14" t="n">
-        <v>3.847566066967561</v>
+        <v>52.42794570039639</v>
       </c>
       <c r="I14" t="n">
-        <v>3.847566066967561</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="J14" t="n">
-        <v>51.46119614569113</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="K14" t="n">
-        <v>51.46119614569113</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="L14" t="n">
-        <v>51.46119614569113</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="M14" t="n">
-        <v>79.59638779496127</v>
+        <v>31.98275771623777</v>
       </c>
       <c r="N14" t="n">
-        <v>112.8006446383868</v>
+        <v>65.18701455966335</v>
       </c>
       <c r="O14" t="n">
-        <v>130.8192215663125</v>
+        <v>97.15104319093098</v>
       </c>
       <c r="P14" t="n">
-        <v>144.7646732696545</v>
+        <v>144.7646732696546</v>
       </c>
       <c r="Q14" t="n">
-        <v>192.378303348378</v>
+        <v>192.3783033483782</v>
       </c>
       <c r="R14" t="n">
-        <v>192.378303348378</v>
+        <v>149.588704967254</v>
       </c>
       <c r="S14" t="n">
-        <v>192.378303348378</v>
+        <v>101.0083253338252</v>
       </c>
       <c r="T14" t="n">
-        <v>192.378303348378</v>
+        <v>52.42794570039639</v>
       </c>
       <c r="U14" t="n">
-        <v>192.378303348378</v>
+        <v>52.42794570039639</v>
       </c>
       <c r="V14" t="n">
-        <v>192.378303348378</v>
+        <v>52.42794570039639</v>
       </c>
       <c r="W14" t="n">
-        <v>149.588704967254</v>
+        <v>52.42794570039639</v>
       </c>
       <c r="X14" t="n">
-        <v>101.0083253338252</v>
+        <v>52.42794570039639</v>
       </c>
       <c r="Y14" t="n">
-        <v>52.42794570039636</v>
+        <v>52.42794570039639</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>192.378303348378</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="C15" t="n">
-        <v>192.378303348378</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="D15" t="n">
-        <v>192.378303348378</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="E15" t="n">
-        <v>192.378303348378</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="F15" t="n">
-        <v>143.7979237149492</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="G15" t="n">
-        <v>95.21754408152043</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="H15" t="n">
-        <v>46.63716444809163</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="I15" t="n">
-        <v>3.847566066967561</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="J15" t="n">
-        <v>3.847566066967561</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="K15" t="n">
-        <v>3.847566066967561</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="L15" t="n">
         <v>36.16916174610745</v>
       </c>
       <c r="M15" t="n">
-        <v>83.78279182483101</v>
+        <v>83.78279182483104</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3964219035546</v>
+        <v>131.3964219035547</v>
       </c>
       <c r="O15" t="n">
-        <v>175.951772593706</v>
+        <v>175.9517725937062</v>
       </c>
       <c r="P15" t="n">
-        <v>192.378303348378</v>
+        <v>192.3783033483782</v>
       </c>
       <c r="Q15" t="n">
-        <v>192.378303348378</v>
+        <v>192.3783033483782</v>
       </c>
       <c r="R15" t="n">
-        <v>192.378303348378</v>
+        <v>192.3783033483782</v>
       </c>
       <c r="S15" t="n">
-        <v>192.378303348378</v>
+        <v>143.7979237149493</v>
       </c>
       <c r="T15" t="n">
-        <v>192.378303348378</v>
+        <v>95.21754408152049</v>
       </c>
       <c r="U15" t="n">
-        <v>192.378303348378</v>
+        <v>95.21754408152049</v>
       </c>
       <c r="V15" t="n">
-        <v>192.378303348378</v>
+        <v>46.63716444809166</v>
       </c>
       <c r="W15" t="n">
-        <v>192.378303348378</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="X15" t="n">
-        <v>192.378303348378</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="Y15" t="n">
-        <v>192.378303348378</v>
+        <v>3.847566066967563</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.847566066967561</v>
+        <v>192.3783033483782</v>
       </c>
       <c r="C16" t="n">
-        <v>3.847566066967561</v>
+        <v>192.3783033483782</v>
       </c>
       <c r="D16" t="n">
-        <v>3.847566066967561</v>
+        <v>192.3783033483782</v>
       </c>
       <c r="E16" t="n">
-        <v>3.847566066967561</v>
+        <v>149.588704967254</v>
       </c>
       <c r="F16" t="n">
-        <v>3.847566066967561</v>
+        <v>101.0083253338252</v>
       </c>
       <c r="G16" t="n">
-        <v>3.847566066967561</v>
+        <v>52.42794570039639</v>
       </c>
       <c r="H16" t="n">
-        <v>3.847566066967561</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="I16" t="n">
-        <v>3.847566066967561</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="J16" t="n">
-        <v>3.847566066967561</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="K16" t="n">
-        <v>51.46119614569113</v>
+        <v>3.847566066967563</v>
       </c>
       <c r="L16" t="n">
-        <v>97.15104319093092</v>
+        <v>51.46119614569116</v>
       </c>
       <c r="M16" t="n">
-        <v>97.15104319093092</v>
+        <v>97.15104319093098</v>
       </c>
       <c r="N16" t="n">
-        <v>97.15104319093092</v>
+        <v>144.7646732696546</v>
       </c>
       <c r="O16" t="n">
-        <v>144.7646732696545</v>
+        <v>144.7646732696546</v>
       </c>
       <c r="P16" t="n">
-        <v>192.378303348378</v>
+        <v>192.3783033483782</v>
       </c>
       <c r="Q16" t="n">
-        <v>192.378303348378</v>
+        <v>192.3783033483782</v>
       </c>
       <c r="R16" t="n">
-        <v>192.378303348378</v>
+        <v>192.3783033483782</v>
       </c>
       <c r="S16" t="n">
-        <v>192.378303348378</v>
+        <v>192.3783033483782</v>
       </c>
       <c r="T16" t="n">
-        <v>143.7979237149492</v>
+        <v>192.3783033483782</v>
       </c>
       <c r="U16" t="n">
-        <v>95.21754408152043</v>
+        <v>192.3783033483782</v>
       </c>
       <c r="V16" t="n">
-        <v>46.63716444809163</v>
+        <v>192.3783033483782</v>
       </c>
       <c r="W16" t="n">
-        <v>3.847566066967561</v>
+        <v>192.3783033483782</v>
       </c>
       <c r="X16" t="n">
-        <v>3.847566066967561</v>
+        <v>192.3783033483782</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.847566066967561</v>
+        <v>192.3783033483782</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.6046295702799</v>
+        <v>172.3711372545527</v>
       </c>
       <c r="C17" t="n">
-        <v>230.6046295702799</v>
+        <v>172.3711372545527</v>
       </c>
       <c r="D17" t="n">
-        <v>179.3125695385874</v>
+        <v>172.3711372545527</v>
       </c>
       <c r="E17" t="n">
+        <v>172.3711372545527</v>
+      </c>
+      <c r="F17" t="n">
         <v>121.0790772228601</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>62.84558490713286</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4.612092591405599</v>
       </c>
       <c r="H17" t="n">
         <v>4.612092591405599</v>
@@ -5513,25 +5513,25 @@
         <v>4.612092591405599</v>
       </c>
       <c r="J17" t="n">
-        <v>4.612092591405599</v>
+        <v>61.68673841004988</v>
       </c>
       <c r="K17" t="n">
-        <v>4.612092591405599</v>
+        <v>61.68673841004988</v>
       </c>
       <c r="L17" t="n">
-        <v>4.612092591405599</v>
+        <v>61.68673841004988</v>
       </c>
       <c r="M17" t="n">
-        <v>32.7472842406758</v>
+        <v>118.7613842286942</v>
       </c>
       <c r="N17" t="n">
-        <v>65.95154108410139</v>
+        <v>175.8360300473385</v>
       </c>
       <c r="O17" t="n">
-        <v>116.4553379329914</v>
+        <v>230.6046295702799</v>
       </c>
       <c r="P17" t="n">
-        <v>173.5299837516357</v>
+        <v>230.6046295702799</v>
       </c>
       <c r="Q17" t="n">
         <v>230.6046295702799</v>
@@ -5543,22 +5543,22 @@
         <v>230.6046295702799</v>
       </c>
       <c r="T17" t="n">
-        <v>230.6046295702799</v>
+        <v>172.3711372545527</v>
       </c>
       <c r="U17" t="n">
-        <v>230.6046295702799</v>
+        <v>172.3711372545527</v>
       </c>
       <c r="V17" t="n">
-        <v>230.6046295702799</v>
+        <v>172.3711372545527</v>
       </c>
       <c r="W17" t="n">
-        <v>230.6046295702799</v>
+        <v>172.3711372545527</v>
       </c>
       <c r="X17" t="n">
-        <v>230.6046295702799</v>
+        <v>172.3711372545527</v>
       </c>
       <c r="Y17" t="n">
-        <v>230.6046295702799</v>
+        <v>172.3711372545527</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>55.90415262309816</v>
+        <v>4.612092591405599</v>
       </c>
       <c r="C18" t="n">
-        <v>55.90415262309816</v>
+        <v>4.612092591405599</v>
       </c>
       <c r="D18" t="n">
-        <v>55.90415262309816</v>
+        <v>4.612092591405599</v>
       </c>
       <c r="E18" t="n">
-        <v>55.90415262309816</v>
+        <v>4.612092591405599</v>
       </c>
       <c r="F18" t="n">
-        <v>55.90415262309816</v>
+        <v>4.612092591405599</v>
       </c>
       <c r="G18" t="n">
-        <v>55.90415262309816</v>
+        <v>4.612092591405599</v>
       </c>
       <c r="H18" t="n">
-        <v>55.90415262309816</v>
+        <v>4.612092591405599</v>
       </c>
       <c r="I18" t="n">
         <v>4.612092591405599</v>
@@ -5598,19 +5598,19 @@
         <v>4.612092591405599</v>
       </c>
       <c r="L18" t="n">
-        <v>36.93368827054547</v>
+        <v>42.95416135967508</v>
       </c>
       <c r="M18" t="n">
-        <v>94.00833408918976</v>
+        <v>100.0288071783194</v>
       </c>
       <c r="N18" t="n">
-        <v>151.082979907834</v>
+        <v>157.1034529969637</v>
       </c>
       <c r="O18" t="n">
-        <v>195.6383305979855</v>
+        <v>214.1780988156079</v>
       </c>
       <c r="P18" t="n">
-        <v>212.0648613526575</v>
+        <v>230.6046295702799</v>
       </c>
       <c r="Q18" t="n">
         <v>230.6046295702799</v>
@@ -5619,25 +5619,25 @@
         <v>230.6046295702799</v>
       </c>
       <c r="S18" t="n">
+        <v>230.6046295702799</v>
+      </c>
+      <c r="T18" t="n">
+        <v>230.6046295702799</v>
+      </c>
+      <c r="U18" t="n">
         <v>172.3711372545527</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
         <v>114.1376449388254</v>
-      </c>
-      <c r="U18" t="n">
-        <v>55.90415262309816</v>
-      </c>
-      <c r="V18" t="n">
-        <v>55.90415262309816</v>
       </c>
       <c r="W18" t="n">
         <v>55.90415262309816</v>
       </c>
       <c r="X18" t="n">
-        <v>55.90415262309816</v>
+        <v>4.612092591405599</v>
       </c>
       <c r="Y18" t="n">
-        <v>55.90415262309816</v>
+        <v>4.612092591405599</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.1376449388254</v>
+        <v>62.84558490713286</v>
       </c>
       <c r="C19" t="n">
-        <v>114.1376449388254</v>
+        <v>4.612092591405599</v>
       </c>
       <c r="D19" t="n">
-        <v>114.1376449388254</v>
+        <v>4.612092591405599</v>
       </c>
       <c r="E19" t="n">
-        <v>114.1376449388254</v>
+        <v>4.612092591405599</v>
       </c>
       <c r="F19" t="n">
-        <v>114.1376449388254</v>
+        <v>4.612092591405599</v>
       </c>
       <c r="G19" t="n">
-        <v>62.84558490713286</v>
+        <v>4.612092591405599</v>
       </c>
       <c r="H19" t="n">
         <v>4.612092591405599</v>
@@ -5680,13 +5680,13 @@
         <v>115.6730952864666</v>
       </c>
       <c r="M19" t="n">
-        <v>115.6730952864666</v>
+        <v>172.7477411051109</v>
       </c>
       <c r="N19" t="n">
-        <v>116.4553379329914</v>
+        <v>173.5299837516357</v>
       </c>
       <c r="O19" t="n">
-        <v>173.5299837516357</v>
+        <v>230.6046295702799</v>
       </c>
       <c r="P19" t="n">
         <v>230.6046295702799</v>
@@ -5704,19 +5704,19 @@
         <v>230.6046295702799</v>
       </c>
       <c r="U19" t="n">
-        <v>230.6046295702799</v>
+        <v>179.3125695385874</v>
       </c>
       <c r="V19" t="n">
-        <v>172.3711372545527</v>
+        <v>121.0790772228601</v>
       </c>
       <c r="W19" t="n">
-        <v>114.1376449388254</v>
+        <v>121.0790772228601</v>
       </c>
       <c r="X19" t="n">
-        <v>114.1376449388254</v>
+        <v>121.0790772228601</v>
       </c>
       <c r="Y19" t="n">
-        <v>114.1376449388254</v>
+        <v>62.84558490713286</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>292.5815303148021</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="C20" t="n">
-        <v>292.5815303148021</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="D20" t="n">
-        <v>292.5815303148021</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="E20" t="n">
-        <v>292.5815303148021</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="F20" t="n">
-        <v>151.8632106174175</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="G20" t="n">
-        <v>11.14489092003286</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="H20" t="n">
-        <v>11.14489092003286</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="I20" t="n">
-        <v>11.14489092003286</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="J20" t="n">
-        <v>11.14489092003286</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="K20" t="n">
-        <v>11.14489092003286</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="L20" t="n">
-        <v>11.14489092003286</v>
+        <v>149.0629160554396</v>
       </c>
       <c r="M20" t="n">
-        <v>39.28008256930306</v>
+        <v>286.9809411908464</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4904705954231</v>
+        <v>424.8989663262531</v>
       </c>
       <c r="O20" t="n">
-        <v>281.4084957308297</v>
+        <v>557.2445460016434</v>
       </c>
       <c r="P20" t="n">
-        <v>419.3265208662364</v>
+        <v>557.2445460016434</v>
       </c>
       <c r="Q20" t="n">
-        <v>557.244546001643</v>
+        <v>557.2445460016434</v>
       </c>
       <c r="R20" t="n">
-        <v>499.3678213797812</v>
+        <v>557.2445460016434</v>
       </c>
       <c r="S20" t="n">
-        <v>358.6495016823966</v>
+        <v>416.5262263042587</v>
       </c>
       <c r="T20" t="n">
-        <v>292.5815303148021</v>
+        <v>416.5262263042587</v>
       </c>
       <c r="U20" t="n">
-        <v>292.5815303148021</v>
+        <v>275.807906606874</v>
       </c>
       <c r="V20" t="n">
-        <v>292.5815303148021</v>
+        <v>135.0895869094893</v>
       </c>
       <c r="W20" t="n">
-        <v>292.5815303148021</v>
+        <v>135.0895869094893</v>
       </c>
       <c r="X20" t="n">
-        <v>292.5815303148021</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.5815303148021</v>
+        <v>11.14489092003287</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>149.0792625557067</v>
+        <v>275.807906606874</v>
       </c>
       <c r="C21" t="n">
-        <v>149.0792625557067</v>
+        <v>275.807906606874</v>
       </c>
       <c r="D21" t="n">
-        <v>149.0792625557067</v>
+        <v>275.807906606874</v>
       </c>
       <c r="E21" t="n">
-        <v>149.0792625557067</v>
+        <v>275.807906606874</v>
       </c>
       <c r="F21" t="n">
-        <v>149.0792625557067</v>
+        <v>275.807906606874</v>
       </c>
       <c r="G21" t="n">
-        <v>11.14489092003286</v>
+        <v>137.8735349712001</v>
       </c>
       <c r="H21" t="n">
-        <v>11.14489092003286</v>
+        <v>74.02275608731466</v>
       </c>
       <c r="I21" t="n">
-        <v>11.14489092003286</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="J21" t="n">
-        <v>84.15575820301252</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="K21" t="n">
-        <v>84.15575820301252</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="L21" t="n">
-        <v>116.4773538821524</v>
+        <v>149.0629160554396</v>
       </c>
       <c r="M21" t="n">
-        <v>208.4146089525276</v>
+        <v>286.9809411908464</v>
       </c>
       <c r="N21" t="n">
-        <v>281.4084957308297</v>
+        <v>424.8989663262531</v>
       </c>
       <c r="O21" t="n">
-        <v>419.3265208662364</v>
+        <v>540.8180152469713</v>
       </c>
       <c r="P21" t="n">
-        <v>557.244546001643</v>
+        <v>557.2445460016434</v>
       </c>
       <c r="Q21" t="n">
-        <v>557.244546001643</v>
+        <v>557.2445460016434</v>
       </c>
       <c r="R21" t="n">
-        <v>557.244546001643</v>
+        <v>557.2445460016434</v>
       </c>
       <c r="S21" t="n">
-        <v>430.5159019504759</v>
+        <v>557.2445460016434</v>
       </c>
       <c r="T21" t="n">
-        <v>289.7975822530914</v>
+        <v>557.2445460016434</v>
       </c>
       <c r="U21" t="n">
-        <v>149.0792625557067</v>
+        <v>557.2445460016434</v>
       </c>
       <c r="V21" t="n">
-        <v>149.0792625557067</v>
+        <v>557.2445460016434</v>
       </c>
       <c r="W21" t="n">
-        <v>149.0792625557067</v>
+        <v>557.2445460016434</v>
       </c>
       <c r="X21" t="n">
-        <v>149.0792625557067</v>
+        <v>416.5262263042587</v>
       </c>
       <c r="Y21" t="n">
-        <v>149.0792625557067</v>
+        <v>275.807906606874</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.14489092003286</v>
+        <v>135.0895869094893</v>
       </c>
       <c r="C22" t="n">
-        <v>11.14489092003286</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="D22" t="n">
-        <v>11.14489092003286</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="E22" t="n">
-        <v>11.14489092003286</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="F22" t="n">
-        <v>11.14489092003286</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="G22" t="n">
-        <v>11.14489092003286</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="H22" t="n">
-        <v>11.14489092003286</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="I22" t="n">
-        <v>11.14489092003286</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="J22" t="n">
-        <v>11.14489092003286</v>
+        <v>11.14489092003287</v>
       </c>
       <c r="K22" t="n">
-        <v>39.95778015875983</v>
+        <v>65.13124779644957</v>
       </c>
       <c r="L22" t="n">
-        <v>164.5681647114026</v>
+        <v>189.7416323490923</v>
       </c>
       <c r="M22" t="n">
-        <v>302.4861898468092</v>
+        <v>327.659657484499</v>
       </c>
       <c r="N22" t="n">
-        <v>440.4042149822159</v>
+        <v>363.9478092330642</v>
       </c>
       <c r="O22" t="n">
-        <v>557.244546001643</v>
+        <v>480.7881402524913</v>
       </c>
       <c r="P22" t="n">
-        <v>557.244546001643</v>
+        <v>557.2445460016434</v>
       </c>
       <c r="Q22" t="n">
-        <v>557.244546001643</v>
+        <v>557.2445460016434</v>
       </c>
       <c r="R22" t="n">
-        <v>433.2998500121867</v>
+        <v>416.5262263042587</v>
       </c>
       <c r="S22" t="n">
-        <v>292.5815303148021</v>
+        <v>416.5262263042587</v>
       </c>
       <c r="T22" t="n">
-        <v>151.8632106174175</v>
+        <v>275.807906606874</v>
       </c>
       <c r="U22" t="n">
-        <v>151.8632106174175</v>
+        <v>275.807906606874</v>
       </c>
       <c r="V22" t="n">
-        <v>11.14489092003286</v>
+        <v>275.807906606874</v>
       </c>
       <c r="W22" t="n">
-        <v>11.14489092003286</v>
+        <v>275.807906606874</v>
       </c>
       <c r="X22" t="n">
-        <v>11.14489092003286</v>
+        <v>275.807906606874</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.14489092003286</v>
+        <v>135.0895869094893</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>332.0725486154134</v>
+        <v>182.8432114621195</v>
       </c>
       <c r="C23" t="n">
-        <v>332.0725486154134</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="D23" t="n">
-        <v>332.0725486154134</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="E23" t="n">
-        <v>162.6477789136719</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="F23" t="n">
         <v>13.41844176037793</v>
@@ -5987,52 +5987,52 @@
         <v>13.41844176037793</v>
       </c>
       <c r="J23" t="n">
-        <v>13.41844176037793</v>
+        <v>125.4147718773258</v>
       </c>
       <c r="K23" t="n">
-        <v>13.41844176037793</v>
+        <v>125.4147718773258</v>
       </c>
       <c r="L23" t="n">
-        <v>179.4716585450549</v>
+        <v>125.4147718773258</v>
       </c>
       <c r="M23" t="n">
-        <v>345.5248753297318</v>
+        <v>291.4679886620028</v>
       </c>
       <c r="N23" t="n">
-        <v>504.8688712342197</v>
+        <v>457.5212054466797</v>
       </c>
       <c r="O23" t="n">
-        <v>670.9220880188966</v>
+        <v>504.8688712342198</v>
       </c>
       <c r="P23" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="Q23" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="R23" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="S23" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="T23" t="n">
-        <v>501.497318317155</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="U23" t="n">
-        <v>501.497318317155</v>
+        <v>521.6927508656028</v>
       </c>
       <c r="V23" t="n">
-        <v>501.497318317155</v>
+        <v>352.2679811638611</v>
       </c>
       <c r="W23" t="n">
-        <v>501.497318317155</v>
+        <v>352.2679811638611</v>
       </c>
       <c r="X23" t="n">
-        <v>501.497318317155</v>
+        <v>182.8432114621195</v>
       </c>
       <c r="Y23" t="n">
-        <v>332.0725486154134</v>
+        <v>182.8432114621195</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>182.8432114621195</v>
+        <v>502.7067509988287</v>
       </c>
       <c r="C24" t="n">
-        <v>13.41844176037793</v>
+        <v>502.7067509988287</v>
       </c>
       <c r="D24" t="n">
-        <v>13.41844176037793</v>
+        <v>502.7067509988287</v>
       </c>
       <c r="E24" t="n">
-        <v>13.41844176037793</v>
+        <v>343.4692959933732</v>
       </c>
       <c r="F24" t="n">
-        <v>13.41844176037793</v>
+        <v>196.9347380202582</v>
       </c>
       <c r="G24" t="n">
-        <v>13.41844176037793</v>
+        <v>59.00036638458425</v>
       </c>
       <c r="H24" t="n">
         <v>13.41844176037793</v>
@@ -6066,52 +6066,52 @@
         <v>13.41844176037793</v>
       </c>
       <c r="J24" t="n">
-        <v>13.41844176037793</v>
+        <v>86.42930904335759</v>
       </c>
       <c r="K24" t="n">
-        <v>179.4716585450549</v>
+        <v>86.42930904335759</v>
       </c>
       <c r="L24" t="n">
-        <v>211.7932542241947</v>
+        <v>118.7509047224975</v>
       </c>
       <c r="M24" t="n">
-        <v>377.8464710088716</v>
+        <v>265.8217676712408</v>
       </c>
       <c r="N24" t="n">
-        <v>543.8996877935485</v>
+        <v>338.8156544495429</v>
       </c>
       <c r="O24" t="n">
-        <v>654.4955572642245</v>
+        <v>504.8688712342198</v>
       </c>
       <c r="P24" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="Q24" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="R24" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="S24" t="n">
-        <v>512.2985231430055</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="T24" t="n">
-        <v>342.8737534412639</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="U24" t="n">
-        <v>342.8737534412639</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="V24" t="n">
-        <v>342.8737534412639</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="W24" t="n">
-        <v>342.8737534412639</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="X24" t="n">
-        <v>342.8737534412639</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="Y24" t="n">
-        <v>342.8737534412639</v>
+        <v>670.9220880188967</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>458.3381222530171</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="C25" t="n">
-        <v>458.3381222530171</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="D25" t="n">
-        <v>308.2214828406814</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="E25" t="n">
-        <v>160.3083892582883</v>
+        <v>523.0089944365036</v>
       </c>
       <c r="F25" t="n">
-        <v>13.41844176037793</v>
+        <v>376.1190469385932</v>
       </c>
       <c r="G25" t="n">
-        <v>13.41844176037793</v>
+        <v>207.0989090967257</v>
       </c>
       <c r="H25" t="n">
-        <v>13.41844176037793</v>
+        <v>49.16971695256908</v>
       </c>
       <c r="I25" t="n">
         <v>13.41844176037793</v>
@@ -6148,13 +6148,13 @@
         <v>13.41844176037793</v>
       </c>
       <c r="K25" t="n">
-        <v>67.40479863679464</v>
+        <v>67.40479863679474</v>
       </c>
       <c r="L25" t="n">
         <v>192.0151831894374</v>
       </c>
       <c r="M25" t="n">
-        <v>333.7884851295636</v>
+        <v>333.7884851295637</v>
       </c>
       <c r="N25" t="n">
         <v>477.6253512503175</v>
@@ -6172,25 +6172,25 @@
         <v>670.9220880188967</v>
       </c>
       <c r="S25" t="n">
-        <v>501.4973183171551</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="T25" t="n">
-        <v>501.4973183171551</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="U25" t="n">
-        <v>501.4973183171551</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="V25" t="n">
-        <v>501.4973183171551</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="W25" t="n">
-        <v>501.4973183171551</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="X25" t="n">
-        <v>501.4973183171551</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="Y25" t="n">
-        <v>501.4973183171551</v>
+        <v>670.9220880188967</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>501.497318317155</v>
+        <v>182.8432114621195</v>
       </c>
       <c r="C26" t="n">
-        <v>501.497318317155</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="D26" t="n">
-        <v>501.497318317155</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="E26" t="n">
-        <v>501.497318317155</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="F26" t="n">
-        <v>332.0725486154134</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="G26" t="n">
-        <v>182.8432114621195</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="H26" t="n">
         <v>13.41844176037793</v>
@@ -6227,49 +6227,49 @@
         <v>13.41844176037793</v>
       </c>
       <c r="K26" t="n">
+        <v>13.41844176037793</v>
+      </c>
+      <c r="L26" t="n">
+        <v>13.41844176037793</v>
+      </c>
+      <c r="M26" t="n">
         <v>179.4716585450549</v>
       </c>
-      <c r="L26" t="n">
-        <v>179.4716585450549</v>
-      </c>
-      <c r="M26" t="n">
-        <v>338.8156544495428</v>
-      </c>
       <c r="N26" t="n">
-        <v>504.8688712342197</v>
+        <v>345.5248753297318</v>
       </c>
       <c r="O26" t="n">
-        <v>670.9220880188966</v>
+        <v>511.5780921144087</v>
       </c>
       <c r="P26" t="n">
-        <v>670.9220880188966</v>
+        <v>523.2632417900488</v>
       </c>
       <c r="Q26" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="R26" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="S26" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="T26" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="U26" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="V26" t="n">
-        <v>501.497318317155</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="W26" t="n">
-        <v>501.497318317155</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="X26" t="n">
-        <v>501.497318317155</v>
+        <v>521.6927508656028</v>
       </c>
       <c r="Y26" t="n">
-        <v>501.497318317155</v>
+        <v>352.2679811638611</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>162.6477789136719</v>
+        <v>491.0150761288263</v>
       </c>
       <c r="C27" t="n">
-        <v>162.6477789136719</v>
+        <v>321.5903064270847</v>
       </c>
       <c r="D27" t="n">
-        <v>162.6477789136719</v>
+        <v>172.6558967658334</v>
       </c>
       <c r="E27" t="n">
-        <v>162.6477789136719</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="F27" t="n">
-        <v>151.3528133960518</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="G27" t="n">
         <v>13.41844176037793</v>
@@ -6312,43 +6312,43 @@
         <v>252.4825258280345</v>
       </c>
       <c r="M27" t="n">
-        <v>415.4484537012455</v>
+        <v>370.8931030110942</v>
       </c>
       <c r="N27" t="n">
-        <v>488.4423404795476</v>
+        <v>443.8869897893964</v>
       </c>
       <c r="O27" t="n">
-        <v>654.4955572642245</v>
+        <v>488.4423404795478</v>
       </c>
       <c r="P27" t="n">
-        <v>670.9220880188966</v>
+        <v>504.8688712342198</v>
       </c>
       <c r="Q27" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="R27" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="S27" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="T27" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="U27" t="n">
-        <v>501.497318317155</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="V27" t="n">
-        <v>332.0725486154134</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="W27" t="n">
-        <v>162.6477789136719</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="X27" t="n">
-        <v>162.6477789136719</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="Y27" t="n">
-        <v>162.6477789136719</v>
+        <v>659.2304131488943</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.41844176037793</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="C28" t="n">
-        <v>13.41844176037793</v>
+        <v>501.9859050909898</v>
       </c>
       <c r="D28" t="n">
-        <v>13.41844176037793</v>
+        <v>351.8692656786541</v>
       </c>
       <c r="E28" t="n">
-        <v>13.41844176037793</v>
+        <v>340.3677717464021</v>
       </c>
       <c r="F28" t="n">
-        <v>13.41844176037793</v>
+        <v>340.3677717464021</v>
       </c>
       <c r="G28" t="n">
-        <v>13.41844176037793</v>
+        <v>171.3476339045345</v>
       </c>
       <c r="H28" t="n">
         <v>13.41844176037793</v>
@@ -6403,31 +6403,31 @@
         <v>670.9220880188967</v>
       </c>
       <c r="Q28" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="R28" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="S28" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="T28" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="U28" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="V28" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="W28" t="n">
-        <v>521.6927508656026</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="X28" t="n">
-        <v>352.2679811638611</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="Y28" t="n">
-        <v>182.8432114621195</v>
+        <v>670.9220880188967</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13.41844176037793</v>
+        <v>501.4973183171551</v>
       </c>
       <c r="C29" t="n">
-        <v>13.41844176037793</v>
+        <v>501.4973183171551</v>
       </c>
       <c r="D29" t="n">
-        <v>13.41844176037793</v>
+        <v>501.4973183171551</v>
       </c>
       <c r="E29" t="n">
-        <v>13.41844176037793</v>
+        <v>501.4973183171551</v>
       </c>
       <c r="F29" t="n">
-        <v>13.41844176037793</v>
+        <v>501.4973183171551</v>
       </c>
       <c r="G29" t="n">
-        <v>13.41844176037793</v>
+        <v>332.0725486154134</v>
       </c>
       <c r="H29" t="n">
-        <v>13.41844176037793</v>
+        <v>168.6323552052209</v>
       </c>
       <c r="I29" t="n">
         <v>13.41844176037793</v>
@@ -6464,49 +6464,49 @@
         <v>13.41844176037793</v>
       </c>
       <c r="K29" t="n">
-        <v>179.4716585450549</v>
+        <v>173.1382312927692</v>
       </c>
       <c r="L29" t="n">
-        <v>345.5248753297318</v>
+        <v>173.1382312927692</v>
       </c>
       <c r="M29" t="n">
-        <v>511.5780921144087</v>
+        <v>339.1914480774461</v>
       </c>
       <c r="N29" t="n">
-        <v>652.9035110909708</v>
+        <v>505.2446648621231</v>
       </c>
       <c r="O29" t="n">
-        <v>670.9220880188966</v>
+        <v>523.2632417900488</v>
       </c>
       <c r="P29" t="n">
-        <v>670.9220880188966</v>
+        <v>523.2632417900488</v>
       </c>
       <c r="Q29" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="R29" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="S29" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="T29" t="n">
-        <v>521.6927508656026</v>
+        <v>501.4973183171551</v>
       </c>
       <c r="U29" t="n">
-        <v>521.6927508656026</v>
+        <v>501.4973183171551</v>
       </c>
       <c r="V29" t="n">
-        <v>352.2679811638611</v>
+        <v>501.4973183171551</v>
       </c>
       <c r="W29" t="n">
-        <v>182.8432114621195</v>
+        <v>501.4973183171551</v>
       </c>
       <c r="X29" t="n">
-        <v>13.41844176037793</v>
+        <v>501.4973183171551</v>
       </c>
       <c r="Y29" t="n">
-        <v>13.41844176037793</v>
+        <v>501.4973183171551</v>
       </c>
     </row>
     <row r="30">
@@ -6540,49 +6540,49 @@
         <v>13.41844176037793</v>
       </c>
       <c r="J30" t="n">
-        <v>26.26737431324739</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="K30" t="n">
-        <v>192.3205910979243</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="L30" t="n">
-        <v>358.3738078826012</v>
+        <v>179.4716585450549</v>
       </c>
       <c r="M30" t="n">
-        <v>415.4484537012455</v>
+        <v>322.3891236948708</v>
       </c>
       <c r="N30" t="n">
-        <v>488.4423404795476</v>
+        <v>488.4423404795477</v>
       </c>
       <c r="O30" t="n">
-        <v>654.4955572642245</v>
+        <v>654.4955572642247</v>
       </c>
       <c r="P30" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="Q30" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="R30" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="S30" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="T30" t="n">
-        <v>521.6927508656026</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="U30" t="n">
+        <v>670.9220880188967</v>
+      </c>
+      <c r="V30" t="n">
+        <v>521.6927508656028</v>
+      </c>
+      <c r="W30" t="n">
         <v>352.2679811638611</v>
       </c>
-      <c r="V30" t="n">
+      <c r="X30" t="n">
         <v>182.8432114621195</v>
-      </c>
-      <c r="W30" t="n">
-        <v>13.41844176037793</v>
-      </c>
-      <c r="X30" t="n">
-        <v>13.41844176037793</v>
       </c>
       <c r="Y30" t="n">
         <v>13.41844176037793</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>332.0725486154134</v>
+        <v>524.4026805034956</v>
       </c>
       <c r="C31" t="n">
-        <v>163.1363656875065</v>
+        <v>524.4026805034956</v>
       </c>
       <c r="D31" t="n">
-        <v>13.41844176037793</v>
+        <v>524.4026805034956</v>
       </c>
       <c r="E31" t="n">
-        <v>13.41844176037793</v>
+        <v>524.4026805034956</v>
       </c>
       <c r="F31" t="n">
-        <v>13.41844176037793</v>
+        <v>524.4026805034956</v>
       </c>
       <c r="G31" t="n">
-        <v>13.41844176037793</v>
+        <v>355.3825426616281</v>
       </c>
       <c r="H31" t="n">
-        <v>13.41844176037793</v>
+        <v>197.4533505174714</v>
       </c>
       <c r="I31" t="n">
-        <v>13.41844176037793</v>
+        <v>60.51283311337956</v>
       </c>
       <c r="J31" t="n">
         <v>13.41844176037793</v>
       </c>
       <c r="K31" t="n">
-        <v>67.40479863679452</v>
+        <v>67.40479863679464</v>
       </c>
       <c r="L31" t="n">
-        <v>192.0151831894373</v>
+        <v>192.0151831894374</v>
       </c>
       <c r="M31" t="n">
-        <v>333.7884851295635</v>
+        <v>333.7884851295636</v>
       </c>
       <c r="N31" t="n">
-        <v>477.6253512503174</v>
+        <v>477.6253512503175</v>
       </c>
       <c r="O31" t="n">
-        <v>594.4656822697445</v>
+        <v>594.4656822697447</v>
       </c>
       <c r="P31" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="Q31" t="n">
-        <v>670.9220880188966</v>
+        <v>639.8021738614125</v>
       </c>
       <c r="R31" t="n">
-        <v>670.9220880188966</v>
+        <v>524.4026805034956</v>
       </c>
       <c r="S31" t="n">
-        <v>501.497318317155</v>
+        <v>524.4026805034956</v>
       </c>
       <c r="T31" t="n">
-        <v>501.497318317155</v>
+        <v>524.4026805034956</v>
       </c>
       <c r="U31" t="n">
-        <v>501.497318317155</v>
+        <v>524.4026805034956</v>
       </c>
       <c r="V31" t="n">
-        <v>501.497318317155</v>
+        <v>524.4026805034956</v>
       </c>
       <c r="W31" t="n">
-        <v>501.497318317155</v>
+        <v>524.4026805034956</v>
       </c>
       <c r="X31" t="n">
-        <v>501.497318317155</v>
+        <v>524.4026805034956</v>
       </c>
       <c r="Y31" t="n">
-        <v>501.497318317155</v>
+        <v>524.4026805034956</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>501.497318317155</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="C32" t="n">
-        <v>501.497318317155</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="D32" t="n">
-        <v>501.497318317155</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="E32" t="n">
-        <v>352.2679811638611</v>
+        <v>501.4973183171551</v>
       </c>
       <c r="F32" t="n">
-        <v>182.8432114621195</v>
+        <v>501.4973183171551</v>
       </c>
       <c r="G32" t="n">
-        <v>13.41844176037793</v>
+        <v>332.0725486154134</v>
       </c>
       <c r="H32" t="n">
-        <v>13.41844176037793</v>
+        <v>162.6477789136718</v>
       </c>
       <c r="I32" t="n">
         <v>13.41844176037793</v>
       </c>
       <c r="J32" t="n">
-        <v>13.41844176037793</v>
+        <v>125.4147718773258</v>
       </c>
       <c r="K32" t="n">
-        <v>13.41844176037793</v>
+        <v>291.4679886620028</v>
       </c>
       <c r="L32" t="n">
-        <v>179.4716585450549</v>
+        <v>291.4679886620028</v>
       </c>
       <c r="M32" t="n">
-        <v>345.5248753297318</v>
+        <v>319.603180311273</v>
       </c>
       <c r="N32" t="n">
-        <v>511.5780921144087</v>
+        <v>485.65639709595</v>
       </c>
       <c r="O32" t="n">
-        <v>670.9220880188966</v>
+        <v>504.8688712342198</v>
       </c>
       <c r="P32" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="Q32" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="R32" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="S32" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="T32" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="U32" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="V32" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="W32" t="n">
-        <v>501.497318317155</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="X32" t="n">
-        <v>501.497318317155</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="Y32" t="n">
-        <v>501.497318317155</v>
+        <v>670.9220880188967</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13.41844176037793</v>
+        <v>162.6477789136718</v>
       </c>
       <c r="C33" t="n">
-        <v>13.41844176037793</v>
+        <v>162.6477789136718</v>
       </c>
       <c r="D33" t="n">
-        <v>13.41844176037793</v>
+        <v>162.6477789136718</v>
       </c>
       <c r="E33" t="n">
-        <v>13.41844176037793</v>
+        <v>162.6477789136718</v>
       </c>
       <c r="F33" t="n">
-        <v>13.41844176037793</v>
+        <v>162.6477789136718</v>
       </c>
       <c r="G33" t="n">
-        <v>13.41844176037793</v>
+        <v>24.71340727799793</v>
       </c>
       <c r="H33" t="n">
         <v>13.41844176037793</v>
@@ -6786,43 +6786,43 @@
         <v>179.4716585450549</v>
       </c>
       <c r="M33" t="n">
-        <v>345.5248753297318</v>
+        <v>322.3891236948708</v>
       </c>
       <c r="N33" t="n">
-        <v>460.3135205440682</v>
+        <v>488.4423404795477</v>
       </c>
       <c r="O33" t="n">
-        <v>504.8688712342197</v>
+        <v>654.4955572642247</v>
       </c>
       <c r="P33" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="Q33" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="R33" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="S33" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="T33" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="U33" t="n">
-        <v>501.497318317155</v>
+        <v>501.4973183171551</v>
       </c>
       <c r="V33" t="n">
         <v>332.0725486154134</v>
       </c>
       <c r="W33" t="n">
-        <v>162.6477789136719</v>
+        <v>332.0725486154134</v>
       </c>
       <c r="X33" t="n">
-        <v>162.6477789136719</v>
+        <v>162.6477789136718</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.41844176037793</v>
+        <v>162.6477789136718</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>635.1708128267055</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="C34" t="n">
-        <v>635.1708128267055</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="D34" t="n">
-        <v>635.1708128267055</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="E34" t="n">
-        <v>487.2577192443124</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="F34" t="n">
-        <v>340.3677717464021</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="G34" t="n">
-        <v>171.3476339045345</v>
+        <v>13.41844176037793</v>
       </c>
       <c r="H34" t="n">
         <v>13.41844176037793</v>
@@ -6859,7 +6859,7 @@
         <v>13.41844176037793</v>
       </c>
       <c r="K34" t="n">
-        <v>67.40479863679462</v>
+        <v>67.40479863679464</v>
       </c>
       <c r="L34" t="n">
         <v>192.0151831894374</v>
@@ -6868,40 +6868,40 @@
         <v>333.7884851295636</v>
       </c>
       <c r="N34" t="n">
-        <v>477.6253512503174</v>
+        <v>477.6253512503175</v>
       </c>
       <c r="O34" t="n">
-        <v>594.4656822697445</v>
+        <v>594.4656822697447</v>
       </c>
       <c r="P34" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="Q34" t="n">
-        <v>670.9220880188966</v>
+        <v>670.9220880188967</v>
       </c>
       <c r="R34" t="n">
-        <v>670.9220880188966</v>
+        <v>521.8609778924542</v>
       </c>
       <c r="S34" t="n">
-        <v>635.1708128267055</v>
+        <v>352.4362081907126</v>
       </c>
       <c r="T34" t="n">
-        <v>635.1708128267055</v>
+        <v>352.4362081907126</v>
       </c>
       <c r="U34" t="n">
-        <v>635.1708128267055</v>
+        <v>352.4362081907126</v>
       </c>
       <c r="V34" t="n">
-        <v>635.1708128267055</v>
+        <v>352.4362081907126</v>
       </c>
       <c r="W34" t="n">
-        <v>635.1708128267055</v>
+        <v>352.4362081907126</v>
       </c>
       <c r="X34" t="n">
-        <v>635.1708128267055</v>
+        <v>183.011438488971</v>
       </c>
       <c r="Y34" t="n">
-        <v>635.1708128267055</v>
+        <v>182.8432114621195</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.570875693410372</v>
+        <v>372.1040458983487</v>
       </c>
       <c r="C35" t="n">
-        <v>9.570875693410372</v>
+        <v>251.2596558300359</v>
       </c>
       <c r="D35" t="n">
-        <v>9.570875693410372</v>
+        <v>251.2596558300359</v>
       </c>
       <c r="E35" t="n">
-        <v>9.570875693410372</v>
+        <v>130.4152657617232</v>
       </c>
       <c r="F35" t="n">
-        <v>9.570875693410372</v>
+        <v>130.4152657617232</v>
       </c>
       <c r="G35" t="n">
         <v>9.570875693410372</v>
@@ -6935,19 +6935,19 @@
         <v>9.570875693410372</v>
       </c>
       <c r="J35" t="n">
-        <v>9.570875693410372</v>
+        <v>121.5672058103583</v>
       </c>
       <c r="K35" t="n">
-        <v>9.570875693410372</v>
+        <v>121.5672058103583</v>
       </c>
       <c r="L35" t="n">
-        <v>128.0104623993637</v>
+        <v>123.2250245526586</v>
       </c>
       <c r="M35" t="n">
-        <v>246.4500491053171</v>
+        <v>241.6646112586119</v>
       </c>
       <c r="N35" t="n">
-        <v>364.8896358112705</v>
+        <v>360.1041979645652</v>
       </c>
       <c r="O35" t="n">
         <v>478.5437846705186</v>
@@ -6959,28 +6959,28 @@
         <v>478.5437846705186</v>
       </c>
       <c r="R35" t="n">
-        <v>420.6670600486568</v>
+        <v>478.5437846705186</v>
       </c>
       <c r="S35" t="n">
-        <v>299.822669980344</v>
+        <v>478.5437846705186</v>
       </c>
       <c r="T35" t="n">
-        <v>299.822669980344</v>
+        <v>478.5437846705186</v>
       </c>
       <c r="U35" t="n">
-        <v>178.9782799120312</v>
+        <v>478.5437846705186</v>
       </c>
       <c r="V35" t="n">
-        <v>58.13388984371842</v>
+        <v>478.5437846705186</v>
       </c>
       <c r="W35" t="n">
-        <v>9.570875693410372</v>
+        <v>478.5437846705186</v>
       </c>
       <c r="X35" t="n">
-        <v>9.570875693410372</v>
+        <v>478.5437846705186</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.570875693410372</v>
+        <v>478.5437846705186</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>64.2910838513388</v>
+        <v>116.0106144655802</v>
       </c>
       <c r="C36" t="n">
         <v>9.570875693410372</v>
@@ -7023,43 +7023,43 @@
         <v>128.0104623993637</v>
       </c>
       <c r="M36" t="n">
-        <v>226.1284297414397</v>
+        <v>246.4500491053171</v>
       </c>
       <c r="N36" t="n">
-        <v>299.1223165197418</v>
+        <v>343.6776672098932</v>
       </c>
       <c r="O36" t="n">
-        <v>343.6776672098933</v>
+        <v>462.1172539158466</v>
       </c>
       <c r="P36" t="n">
-        <v>360.1041979645653</v>
+        <v>478.5437846705186</v>
       </c>
       <c r="Q36" t="n">
         <v>478.5437846705186</v>
       </c>
       <c r="R36" t="n">
-        <v>426.8242540562772</v>
+        <v>478.5437846705186</v>
       </c>
       <c r="S36" t="n">
-        <v>305.9798639879644</v>
+        <v>478.5437846705186</v>
       </c>
       <c r="T36" t="n">
-        <v>185.1354739196516</v>
+        <v>478.5437846705186</v>
       </c>
       <c r="U36" t="n">
-        <v>185.1354739196516</v>
+        <v>478.5437846705186</v>
       </c>
       <c r="V36" t="n">
-        <v>185.1354739196516</v>
+        <v>478.5437846705186</v>
       </c>
       <c r="W36" t="n">
-        <v>64.2910838513388</v>
+        <v>357.6993946022058</v>
       </c>
       <c r="X36" t="n">
-        <v>64.2910838513388</v>
+        <v>357.6993946022058</v>
       </c>
       <c r="Y36" t="n">
-        <v>64.2910838513388</v>
+        <v>236.855004533893</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>478.5437846705186</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="C37" t="n">
-        <v>372.1040458983488</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="D37" t="n">
-        <v>372.1040458983488</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="E37" t="n">
-        <v>251.259655830036</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="F37" t="n">
-        <v>130.4152657617232</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="G37" t="n">
         <v>9.570875693410372</v>
@@ -7099,16 +7099,16 @@
         <v>9.570875693410372</v>
       </c>
       <c r="L37" t="n">
-        <v>128.0104623993637</v>
+        <v>48.36787449003269</v>
       </c>
       <c r="M37" t="n">
-        <v>166.8074611959861</v>
+        <v>166.807461195986</v>
       </c>
       <c r="N37" t="n">
-        <v>285.2470479019395</v>
+        <v>285.2470479019394</v>
       </c>
       <c r="O37" t="n">
-        <v>402.0873789213666</v>
+        <v>402.0873789213665</v>
       </c>
       <c r="P37" t="n">
         <v>478.5437846705186</v>
@@ -7123,22 +7123,22 @@
         <v>478.5437846705186</v>
       </c>
       <c r="T37" t="n">
-        <v>478.5437846705186</v>
+        <v>357.6993946022058</v>
       </c>
       <c r="U37" t="n">
-        <v>478.5437846705186</v>
+        <v>236.855004533893</v>
       </c>
       <c r="V37" t="n">
-        <v>478.5437846705186</v>
+        <v>116.0106144655802</v>
       </c>
       <c r="W37" t="n">
-        <v>478.5437846705186</v>
+        <v>116.0106144655802</v>
       </c>
       <c r="X37" t="n">
-        <v>478.5437846705186</v>
+        <v>116.0106144655802</v>
       </c>
       <c r="Y37" t="n">
-        <v>478.5437846705186</v>
+        <v>116.0106144655802</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>372.1040458983488</v>
+        <v>372.1040458983487</v>
       </c>
       <c r="C38" t="n">
-        <v>251.259655830036</v>
+        <v>372.1040458983487</v>
       </c>
       <c r="D38" t="n">
+        <v>372.1040458983487</v>
+      </c>
+      <c r="E38" t="n">
+        <v>372.1040458983487</v>
+      </c>
+      <c r="F38" t="n">
+        <v>251.2596558300359</v>
+      </c>
+      <c r="G38" t="n">
         <v>130.4152657617232</v>
-      </c>
-      <c r="E38" t="n">
-        <v>130.4152657617232</v>
-      </c>
-      <c r="F38" t="n">
-        <v>9.570875693410372</v>
-      </c>
-      <c r="G38" t="n">
-        <v>9.570875693410372</v>
       </c>
       <c r="H38" t="n">
         <v>9.570875693410372</v>
@@ -7175,22 +7175,22 @@
         <v>9.570875693410372</v>
       </c>
       <c r="K38" t="n">
+        <v>9.570875693410372</v>
+      </c>
+      <c r="L38" t="n">
+        <v>9.570875693410372</v>
+      </c>
+      <c r="M38" t="n">
         <v>128.0104623993637</v>
       </c>
-      <c r="L38" t="n">
-        <v>128.0104623993637</v>
-      </c>
-      <c r="M38" t="n">
-        <v>246.4500491053171</v>
-      </c>
       <c r="N38" t="n">
-        <v>360.1041979645653</v>
+        <v>161.2147192427893</v>
       </c>
       <c r="O38" t="n">
-        <v>478.5437846705186</v>
+        <v>279.6543059487427</v>
       </c>
       <c r="P38" t="n">
-        <v>478.5437846705186</v>
+        <v>360.1041979645652</v>
       </c>
       <c r="Q38" t="n">
         <v>478.5437846705186</v>
@@ -7214,10 +7214,10 @@
         <v>478.5437846705186</v>
       </c>
       <c r="X38" t="n">
-        <v>478.5437846705186</v>
+        <v>372.1040458983487</v>
       </c>
       <c r="Y38" t="n">
-        <v>478.5437846705186</v>
+        <v>372.1040458983487</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>116.0106144655802</v>
+        <v>236.855004533893</v>
       </c>
       <c r="C39" t="n">
         <v>116.0106144655802</v>
       </c>
       <c r="D39" t="n">
-        <v>116.0106144655802</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="E39" t="n">
-        <v>116.0106144655802</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="F39" t="n">
-        <v>116.0106144655802</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="G39" t="n">
-        <v>116.0106144655802</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="H39" t="n">
-        <v>10.33354565968017</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="I39" t="n">
         <v>9.570875693410372</v>
       </c>
       <c r="J39" t="n">
-        <v>82.58174297639003</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="K39" t="n">
-        <v>82.58174297639003</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="L39" t="n">
-        <v>114.9033386555299</v>
+        <v>128.0104623993637</v>
       </c>
       <c r="M39" t="n">
-        <v>171.9779844741742</v>
+        <v>246.4500491053171</v>
       </c>
       <c r="N39" t="n">
-        <v>244.9718712524763</v>
+        <v>319.4439358836192</v>
       </c>
       <c r="O39" t="n">
-        <v>360.1041979645653</v>
+        <v>437.8835225895725</v>
       </c>
       <c r="P39" t="n">
         <v>478.5437846705186</v>
@@ -7281,22 +7281,22 @@
         <v>478.5437846705186</v>
       </c>
       <c r="T39" t="n">
-        <v>478.5437846705186</v>
+        <v>357.6993946022058</v>
       </c>
       <c r="U39" t="n">
         <v>357.6993946022058</v>
       </c>
       <c r="V39" t="n">
+        <v>357.6993946022058</v>
+      </c>
+      <c r="W39" t="n">
+        <v>357.6993946022058</v>
+      </c>
+      <c r="X39" t="n">
+        <v>357.6993946022058</v>
+      </c>
+      <c r="Y39" t="n">
         <v>236.855004533893</v>
-      </c>
-      <c r="W39" t="n">
-        <v>116.0106144655802</v>
-      </c>
-      <c r="X39" t="n">
-        <v>116.0106144655802</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>116.0106144655802</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>478.5437846705186</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="C40" t="n">
-        <v>478.5437846705186</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="D40" t="n">
-        <v>478.5437846705186</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="E40" t="n">
-        <v>357.6993946022058</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="F40" t="n">
-        <v>357.6993946022058</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="G40" t="n">
-        <v>251.259655830036</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="H40" t="n">
-        <v>130.4152657617232</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="I40" t="n">
         <v>9.570875693410372</v>
@@ -7333,49 +7333,49 @@
         <v>9.570875693410372</v>
       </c>
       <c r="K40" t="n">
-        <v>9.570875693410372</v>
+        <v>63.55723256982707</v>
       </c>
       <c r="L40" t="n">
-        <v>128.0104623993637</v>
+        <v>63.55723256982707</v>
       </c>
       <c r="M40" t="n">
-        <v>243.2638669451382</v>
+        <v>166.807461195986</v>
       </c>
       <c r="N40" t="n">
-        <v>361.7034536510915</v>
+        <v>285.2470479019394</v>
       </c>
       <c r="O40" t="n">
-        <v>478.5437846705186</v>
+        <v>402.0873789213665</v>
       </c>
       <c r="P40" t="n">
         <v>478.5437846705186</v>
       </c>
       <c r="Q40" t="n">
-        <v>478.5437846705186</v>
+        <v>447.4238705130343</v>
       </c>
       <c r="R40" t="n">
-        <v>478.5437846705186</v>
+        <v>326.5794804447215</v>
       </c>
       <c r="S40" t="n">
-        <v>478.5437846705186</v>
+        <v>205.7350903764087</v>
       </c>
       <c r="T40" t="n">
-        <v>478.5437846705186</v>
+        <v>84.89070030809597</v>
       </c>
       <c r="U40" t="n">
-        <v>478.5437846705186</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="V40" t="n">
-        <v>478.5437846705186</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="W40" t="n">
-        <v>478.5437846705186</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="X40" t="n">
-        <v>478.5437846705186</v>
+        <v>9.570875693410372</v>
       </c>
       <c r="Y40" t="n">
-        <v>478.5437846705186</v>
+        <v>9.570875693410372</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>342.3801813270151</v>
+        <v>119.9976265549867</v>
       </c>
       <c r="C41" t="n">
-        <v>231.1889039410009</v>
+        <v>119.9976265549867</v>
       </c>
       <c r="D41" t="n">
-        <v>231.1889039410009</v>
+        <v>119.9976265549867</v>
       </c>
       <c r="E41" t="n">
-        <v>119.9976265549866</v>
+        <v>119.9976265549867</v>
       </c>
       <c r="F41" t="n">
-        <v>8.806349168972329</v>
+        <v>119.9976265549867</v>
       </c>
       <c r="G41" t="n">
-        <v>8.806349168972329</v>
+        <v>119.9976265549867</v>
       </c>
       <c r="H41" t="n">
-        <v>8.806349168972329</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="I41" t="n">
-        <v>8.806349168972329</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="J41" t="n">
-        <v>8.806349168972329</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="K41" t="n">
-        <v>8.806349168972329</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="L41" t="n">
-        <v>8.806349168972329</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="M41" t="n">
-        <v>117.7849201350049</v>
+        <v>95.36316862259302</v>
       </c>
       <c r="N41" t="n">
-        <v>222.3603165165513</v>
+        <v>204.3417395886256</v>
       </c>
       <c r="O41" t="n">
-        <v>331.3388874825839</v>
+        <v>222.3603165165514</v>
       </c>
       <c r="P41" t="n">
-        <v>331.3388874825839</v>
+        <v>331.338887482584</v>
       </c>
       <c r="Q41" t="n">
-        <v>440.3174584486164</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="R41" t="n">
-        <v>440.3174584486164</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="S41" t="n">
-        <v>440.3174584486164</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="T41" t="n">
-        <v>440.3174584486164</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="U41" t="n">
-        <v>440.3174584486164</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="V41" t="n">
-        <v>440.3174584486164</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="W41" t="n">
-        <v>440.3174584486164</v>
+        <v>342.3801813270153</v>
       </c>
       <c r="X41" t="n">
-        <v>440.3174584486164</v>
+        <v>231.188903941001</v>
       </c>
       <c r="Y41" t="n">
-        <v>440.3174584486164</v>
+        <v>119.9976265549867</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>217.9349036765879</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="C42" t="n">
-        <v>217.9349036765879</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="D42" t="n">
-        <v>217.9349036765879</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="E42" t="n">
-        <v>217.9349036765879</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="F42" t="n">
-        <v>106.7436262905737</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="G42" t="n">
-        <v>8.806349168972329</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="H42" t="n">
-        <v>8.806349168972329</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="I42" t="n">
-        <v>8.806349168972329</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="J42" t="n">
-        <v>8.806349168972329</v>
+        <v>81.81721645195199</v>
       </c>
       <c r="K42" t="n">
-        <v>8.806349168972329</v>
+        <v>81.81721645195199</v>
       </c>
       <c r="L42" t="n">
-        <v>117.7849201350049</v>
+        <v>190.7957874179846</v>
       </c>
       <c r="M42" t="n">
-        <v>205.9337857618793</v>
+        <v>299.7743583840173</v>
       </c>
       <c r="N42" t="n">
-        <v>314.9123567279119</v>
+        <v>372.7682451623194</v>
       </c>
       <c r="O42" t="n">
-        <v>423.8909276939444</v>
+        <v>417.3235958524708</v>
       </c>
       <c r="P42" t="n">
-        <v>440.3174584486164</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="Q42" t="n">
-        <v>440.3174584486164</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="R42" t="n">
-        <v>440.3174584486164</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="S42" t="n">
-        <v>440.3174584486164</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="T42" t="n">
-        <v>440.3174584486164</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="U42" t="n">
-        <v>440.3174584486164</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="V42" t="n">
-        <v>329.1261810626022</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="W42" t="n">
-        <v>217.9349036765879</v>
+        <v>329.1261810626023</v>
       </c>
       <c r="X42" t="n">
-        <v>217.9349036765879</v>
+        <v>231.188903941001</v>
       </c>
       <c r="Y42" t="n">
-        <v>217.9349036765879</v>
+        <v>119.9976265549867</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>119.9976265549866</v>
+        <v>231.188903941001</v>
       </c>
       <c r="C43" t="n">
-        <v>119.9976265549866</v>
+        <v>231.188903941001</v>
       </c>
       <c r="D43" t="n">
-        <v>119.9976265549866</v>
+        <v>231.188903941001</v>
       </c>
       <c r="E43" t="n">
-        <v>119.9976265549866</v>
+        <v>231.188903941001</v>
       </c>
       <c r="F43" t="n">
-        <v>119.9976265549866</v>
+        <v>119.9976265549867</v>
       </c>
       <c r="G43" t="n">
-        <v>8.806349168972329</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="H43" t="n">
-        <v>8.806349168972329</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="I43" t="n">
-        <v>8.806349168972329</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="J43" t="n">
-        <v>8.806349168972329</v>
+        <v>8.806349168972334</v>
       </c>
       <c r="K43" t="n">
-        <v>62.79270604538902</v>
+        <v>62.79270604538903</v>
       </c>
       <c r="L43" t="n">
-        <v>171.7712770114216</v>
+        <v>171.7712770114217</v>
       </c>
       <c r="M43" t="n">
-        <v>254.8824817334318</v>
+        <v>280.7498479774543</v>
       </c>
       <c r="N43" t="n">
-        <v>254.8824817334318</v>
+        <v>389.7284189434869</v>
       </c>
       <c r="O43" t="n">
-        <v>363.8610526994644</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="P43" t="n">
-        <v>440.3174584486164</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="Q43" t="n">
-        <v>409.1975442911322</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="R43" t="n">
-        <v>409.1975442911322</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="S43" t="n">
-        <v>409.1975442911322</v>
+        <v>440.3174584486167</v>
       </c>
       <c r="T43" t="n">
-        <v>298.006266905118</v>
+        <v>342.3801813270153</v>
       </c>
       <c r="U43" t="n">
-        <v>231.1889039410009</v>
+        <v>342.3801813270153</v>
       </c>
       <c r="V43" t="n">
-        <v>231.1889039410009</v>
+        <v>342.3801813270153</v>
       </c>
       <c r="W43" t="n">
-        <v>119.9976265549866</v>
+        <v>342.3801813270153</v>
       </c>
       <c r="X43" t="n">
-        <v>119.9976265549866</v>
+        <v>342.3801813270153</v>
       </c>
       <c r="Y43" t="n">
-        <v>119.9976265549866</v>
+        <v>231.188903941001</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>88.3929008534158</v>
+      </c>
+      <c r="C44" t="n">
+        <v>88.3929008534158</v>
+      </c>
+      <c r="D44" t="n">
+        <v>88.3929008534158</v>
+      </c>
+      <c r="E44" t="n">
+        <v>59.68645084905889</v>
+      </c>
+      <c r="F44" t="n">
         <v>30.98000084470198</v>
-      </c>
-      <c r="C44" t="n">
-        <v>30.98000084470198</v>
-      </c>
-      <c r="D44" t="n">
-        <v>30.98000084470198</v>
-      </c>
-      <c r="E44" t="n">
-        <v>30.98000084470198</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2.273550840345067</v>
       </c>
       <c r="G44" t="n">
         <v>2.273550840345067</v>
@@ -7646,19 +7646,19 @@
         <v>2.273550840345067</v>
       </c>
       <c r="J44" t="n">
-        <v>2.273550840345067</v>
+        <v>11.25339014151699</v>
       </c>
       <c r="K44" t="n">
-        <v>2.273550840345067</v>
+        <v>11.25339014151699</v>
       </c>
       <c r="L44" t="n">
-        <v>2.273550840345067</v>
+        <v>11.25339014151699</v>
       </c>
       <c r="M44" t="n">
-        <v>30.40874248961527</v>
+        <v>39.38858179078719</v>
       </c>
       <c r="N44" t="n">
-        <v>58.54393413888548</v>
+        <v>67.5237734400574</v>
       </c>
       <c r="O44" t="n">
         <v>85.54235036798315</v>
@@ -7673,25 +7673,25 @@
         <v>113.6775420172534</v>
       </c>
       <c r="S44" t="n">
-        <v>84.97109201289645</v>
+        <v>113.6775420172534</v>
       </c>
       <c r="T44" t="n">
-        <v>84.97109201289645</v>
+        <v>113.6775420172534</v>
       </c>
       <c r="U44" t="n">
-        <v>84.97109201289645</v>
+        <v>113.6775420172534</v>
       </c>
       <c r="V44" t="n">
-        <v>84.97109201289645</v>
+        <v>113.6775420172534</v>
       </c>
       <c r="W44" t="n">
-        <v>84.97109201289645</v>
+        <v>113.6775420172534</v>
       </c>
       <c r="X44" t="n">
-        <v>59.68645084905889</v>
+        <v>88.3929008534158</v>
       </c>
       <c r="Y44" t="n">
-        <v>30.98000084470198</v>
+        <v>88.3929008534158</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>56.26464200853954</v>
+        <v>113.6775420172534</v>
       </c>
       <c r="C45" t="n">
-        <v>56.26464200853954</v>
+        <v>88.3929008534158</v>
       </c>
       <c r="D45" t="n">
-        <v>56.26464200853954</v>
+        <v>59.68645084905889</v>
       </c>
       <c r="E45" t="n">
-        <v>56.26464200853954</v>
+        <v>30.98000084470198</v>
       </c>
       <c r="F45" t="n">
-        <v>56.26464200853954</v>
+        <v>2.273550840345067</v>
       </c>
       <c r="G45" t="n">
-        <v>56.26464200853954</v>
+        <v>2.273550840345067</v>
       </c>
       <c r="H45" t="n">
-        <v>30.98000084470198</v>
+        <v>2.273550840345067</v>
       </c>
       <c r="I45" t="n">
         <v>2.273550840345067</v>
@@ -7731,13 +7731,13 @@
         <v>2.273550840345067</v>
       </c>
       <c r="L45" t="n">
-        <v>12.84543631477074</v>
+        <v>30.40874248961527</v>
       </c>
       <c r="M45" t="n">
-        <v>40.98062796404094</v>
+        <v>58.54393413888548</v>
       </c>
       <c r="N45" t="n">
-        <v>69.11581961331115</v>
+        <v>86.67912578815569</v>
       </c>
       <c r="O45" t="n">
         <v>97.25101126258136</v>
@@ -7749,28 +7749,28 @@
         <v>113.6775420172534</v>
       </c>
       <c r="R45" t="n">
-        <v>84.97109201289645</v>
+        <v>113.6775420172534</v>
       </c>
       <c r="S45" t="n">
-        <v>84.97109201289645</v>
+        <v>113.6775420172534</v>
       </c>
       <c r="T45" t="n">
-        <v>84.97109201289645</v>
+        <v>113.6775420172534</v>
       </c>
       <c r="U45" t="n">
-        <v>56.26464200853954</v>
+        <v>113.6775420172534</v>
       </c>
       <c r="V45" t="n">
-        <v>56.26464200853954</v>
+        <v>113.6775420172534</v>
       </c>
       <c r="W45" t="n">
-        <v>56.26464200853954</v>
+        <v>113.6775420172534</v>
       </c>
       <c r="X45" t="n">
-        <v>56.26464200853954</v>
+        <v>113.6775420172534</v>
       </c>
       <c r="Y45" t="n">
-        <v>56.26464200853954</v>
+        <v>113.6775420172534</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>88.3929008534158</v>
+        <v>56.26464200853954</v>
       </c>
       <c r="C46" t="n">
-        <v>59.68645084905889</v>
+        <v>27.55819200418263</v>
       </c>
       <c r="D46" t="n">
-        <v>59.68645084905889</v>
+        <v>27.55819200418263</v>
       </c>
       <c r="E46" t="n">
-        <v>30.98000084470198</v>
+        <v>2.273550840345067</v>
       </c>
       <c r="F46" t="n">
         <v>2.273550840345067</v>
@@ -7807,19 +7807,19 @@
         <v>2.273550840345067</v>
       </c>
       <c r="K46" t="n">
+        <v>2.273550840345067</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.273550840345067</v>
+      </c>
+      <c r="M46" t="n">
         <v>30.40874248961527</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>58.54393413888548</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46" t="n">
         <v>86.67912578815569</v>
-      </c>
-      <c r="N46" t="n">
-        <v>113.6775420172534</v>
-      </c>
-      <c r="O46" t="n">
-        <v>113.6775420172534</v>
       </c>
       <c r="P46" t="n">
         <v>113.6775420172534</v>
@@ -7843,13 +7843,13 @@
         <v>113.6775420172534</v>
       </c>
       <c r="W46" t="n">
-        <v>113.6775420172534</v>
+        <v>84.97109201289645</v>
       </c>
       <c r="X46" t="n">
-        <v>113.6775420172534</v>
+        <v>84.97109201289645</v>
       </c>
       <c r="Y46" t="n">
-        <v>113.6775420172534</v>
+        <v>84.97109201289645</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.96900899333851</v>
+        <v>55.96900899333849</v>
       </c>
       <c r="K11" t="n">
-        <v>32.63200748086226</v>
+        <v>80.72658331795675</v>
       </c>
       <c r="L11" t="n">
-        <v>3.208383872282951</v>
+        <v>45.7140842284567</v>
       </c>
       <c r="M11" t="n">
-        <v>17.73197514744404</v>
+        <v>19.6751903327812</v>
       </c>
       <c r="N11" t="n">
-        <v>14.554922459897</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>29.89399308161398</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>19.31571952068791</v>
+        <v>19.31571952068785</v>
       </c>
       <c r="Q11" t="n">
-        <v>111.2592167708903</v>
+        <v>63.16464093379577</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>52.3426845495203</v>
+        <v>52.34268454952029</v>
       </c>
       <c r="K12" t="n">
-        <v>10.51771751634968</v>
+        <v>10.51771751634966</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.33181376025072</v>
+        <v>39.33181376025071</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8848,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>98.36345338386775</v>
+        <v>100.3066685692049</v>
       </c>
       <c r="L13" t="n">
         <v>84.70020207294921</v>
       </c>
       <c r="M13" t="n">
-        <v>83.39888125146314</v>
+        <v>81.45566606612596</v>
       </c>
       <c r="N13" t="n">
-        <v>74.62252892321906</v>
+        <v>26.52795308612454</v>
       </c>
       <c r="O13" t="n">
-        <v>45.02112998262277</v>
+        <v>45.02112998262275</v>
       </c>
       <c r="P13" t="n">
-        <v>57.77787063812998</v>
+        <v>105.8724464752245</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>104.063584830433</v>
+        <v>55.96900899333849</v>
       </c>
       <c r="K14" t="n">
-        <v>32.63200748086226</v>
+        <v>32.63200748086223</v>
       </c>
       <c r="L14" t="n">
-        <v>3.208383872282951</v>
+        <v>3.208383872282923</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>14.08631485186048</v>
       </c>
       <c r="P14" t="n">
-        <v>33.40203437254848</v>
+        <v>67.41029535778236</v>
       </c>
       <c r="Q14" t="n">
         <v>111.2592167708903</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>52.3426845495203</v>
+        <v>52.34268454952029</v>
       </c>
       <c r="K15" t="n">
-        <v>10.51771751634968</v>
+        <v>10.51771751634966</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.33181376025072</v>
+        <v>39.33181376025071</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,19 +9085,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>100.3066685692049</v>
+        <v>52.21209273211041</v>
       </c>
       <c r="L16" t="n">
-        <v>82.75698688761207</v>
+        <v>84.70020207294922</v>
       </c>
       <c r="M16" t="n">
-        <v>35.30430541436863</v>
+        <v>81.45566606612599</v>
       </c>
       <c r="N16" t="n">
-        <v>26.52795308612455</v>
+        <v>74.62252892321908</v>
       </c>
       <c r="O16" t="n">
-        <v>93.11570581971728</v>
+        <v>45.02112998262275</v>
       </c>
       <c r="P16" t="n">
         <v>105.8724464752245</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.96900899333849</v>
+        <v>113.6201663859085</v>
       </c>
       <c r="K17" t="n">
         <v>32.63200748086223</v>
@@ -9170,19 +9170,19 @@
         <v>3.208383872282923</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>29.23177188825665</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>24.11150401537242</v>
       </c>
       <c r="O17" t="n">
-        <v>32.81335345551943</v>
+        <v>37.12123494446034</v>
       </c>
       <c r="P17" t="n">
-        <v>76.96687691325783</v>
+        <v>19.31571952068785</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.8157983263658</v>
+        <v>63.16464093379577</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9246,7 +9246,7 @@
         <v>10.51771751634966</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>6.081285948615765</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>12.64575265504328</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.05885236390975</v>
+        <v>39.33181376025071</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9328,7 +9328,7 @@
         <v>94.25678362842467</v>
       </c>
       <c r="M19" t="n">
-        <v>35.3043054143686</v>
+        <v>92.95546280693858</v>
       </c>
       <c r="N19" t="n">
         <v>27.31809717352332</v>
@@ -9337,7 +9337,7 @@
         <v>102.6722873751927</v>
       </c>
       <c r="P19" t="n">
-        <v>115.4290280307</v>
+        <v>57.77787063812997</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9404,22 +9404,22 @@
         <v>32.63200748086223</v>
       </c>
       <c r="L20" t="n">
-        <v>3.208383872282923</v>
+        <v>142.5195203726938</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>110.8917509960975</v>
       </c>
       <c r="N20" t="n">
-        <v>71.72336483100446</v>
+        <v>105.7714831232133</v>
       </c>
       <c r="O20" t="n">
-        <v>121.1105537449302</v>
+        <v>115.4818209570348</v>
       </c>
       <c r="P20" t="n">
-        <v>158.6268560210986</v>
+        <v>19.31571952068785</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.4757774342065</v>
+        <v>63.16464093379577</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>52.34268454952029</v>
       </c>
       <c r="K21" t="n">
         <v>10.51771751634966</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>106.6630600568352</v>
       </c>
       <c r="M21" t="n">
-        <v>35.21475681993022</v>
+        <v>81.65997910784085</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>65.57993773444912</v>
       </c>
       <c r="O21" t="n">
-        <v>94.30573176288402</v>
+        <v>72.08454366723915</v>
       </c>
       <c r="P21" t="n">
-        <v>122.7186811926612</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>39.33181376025071</v>
@@ -9559,22 +9559,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>81.31602125607705</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>174.6154419147793</v>
+        <v>174.6154419147794</v>
       </c>
       <c r="N22" t="n">
-        <v>165.8390895865353</v>
+        <v>63.18265182204894</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>57.77787063812997</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,25 +9635,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>55.96900899333849</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>32.63200748086223</v>
       </c>
       <c r="L23" t="n">
-        <v>170.9389058770071</v>
+        <v>3.208383872282923</v>
       </c>
       <c r="M23" t="n">
         <v>139.3111365004108</v>
       </c>
       <c r="N23" t="n">
-        <v>127.4138778394569</v>
+        <v>134.1908686275266</v>
       </c>
       <c r="O23" t="n">
-        <v>149.5299392492436</v>
+        <v>29.62534228243875</v>
       </c>
       <c r="P23" t="n">
-        <v>19.31571952068785</v>
+        <v>187.046241525412</v>
       </c>
       <c r="Q23" t="n">
         <v>63.16464093379577</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>52.34268454952029</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>178.2482395210738</v>
+        <v>10.51771751634966</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>110.0793646121542</v>
+        <v>90.90526982838284</v>
       </c>
       <c r="N24" t="n">
-        <v>93.99932323876243</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>66.7075947278026</v>
+        <v>122.7251172671975</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>151.1380666969747</v>
       </c>
       <c r="Q24" t="n">
         <v>39.33181376025071</v>
@@ -9875,13 +9875,13 @@
         <v>55.96900899333849</v>
       </c>
       <c r="K26" t="n">
-        <v>200.3625294855864</v>
+        <v>32.63200748086223</v>
       </c>
       <c r="L26" t="n">
         <v>3.208383872282923</v>
       </c>
       <c r="M26" t="n">
-        <v>132.5341457123411</v>
+        <v>139.3111365004108</v>
       </c>
       <c r="N26" t="n">
         <v>134.1908686275266</v>
@@ -9890,10 +9890,10 @@
         <v>149.5299392492436</v>
       </c>
       <c r="P26" t="n">
-        <v>19.31571952068785</v>
+        <v>31.11890101123341</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.16464093379577</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9960,19 +9960,19 @@
         <v>135.0824455611485</v>
       </c>
       <c r="M27" t="n">
-        <v>106.9608909642088</v>
+        <v>61.95548622668224</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>122.7251172671974</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.33181376025071</v>
+        <v>207.0623357649749</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,16 +10112,16 @@
         <v>55.96900899333849</v>
       </c>
       <c r="K29" t="n">
-        <v>200.3625294855864</v>
+        <v>193.9651282206514</v>
       </c>
       <c r="L29" t="n">
-        <v>170.9389058770071</v>
+        <v>3.208383872282923</v>
       </c>
       <c r="M29" t="n">
         <v>139.3111365004108</v>
       </c>
       <c r="N29" t="n">
-        <v>109.2132950839763</v>
+        <v>134.1908686275266</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>19.31571952068785</v>
       </c>
       <c r="Q29" t="n">
-        <v>63.16464093379577</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,22 +10188,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.32140429989347</v>
+        <v>52.34268454952029</v>
       </c>
       <c r="K30" t="n">
-        <v>178.2482395210738</v>
+        <v>10.51771751634966</v>
       </c>
       <c r="L30" t="n">
         <v>135.0824455611485</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>86.70991851633499</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>93.99932323876246</v>
       </c>
       <c r="O30" t="n">
-        <v>122.7251172671974</v>
+        <v>122.7251172671975</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>55.96900899333849</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>32.63200748086223</v>
+        <v>200.3625294855864</v>
       </c>
       <c r="L32" t="n">
-        <v>170.9389058770071</v>
+        <v>3.208383872282923</v>
       </c>
       <c r="M32" t="n">
-        <v>139.3111365004108</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>134.1908686275266</v>
       </c>
       <c r="O32" t="n">
-        <v>142.7529484611739</v>
+        <v>1.205956778125348</v>
       </c>
       <c r="P32" t="n">
-        <v>19.31571952068785</v>
+        <v>187.046241525412</v>
       </c>
       <c r="Q32" t="n">
         <v>63.16464093379577</v>
@@ -10434,16 +10434,16 @@
         <v>135.0824455611485</v>
       </c>
       <c r="M33" t="n">
-        <v>110.0793646121542</v>
+        <v>86.70991851633499</v>
       </c>
       <c r="N33" t="n">
-        <v>42.216927713166</v>
+        <v>93.99932323876246</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>122.7251172671975</v>
       </c>
       <c r="P33" t="n">
-        <v>151.1380666969746</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>39.33181376025071</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>55.96900899333849</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>32.63200748086223</v>
       </c>
       <c r="L35" t="n">
-        <v>122.8443300399126</v>
+        <v>4.882948258444806</v>
       </c>
       <c r="M35" t="n">
-        <v>91.21656066331632</v>
+        <v>91.21656066331627</v>
       </c>
       <c r="N35" t="n">
-        <v>86.09629279043209</v>
+        <v>86.09629279043207</v>
       </c>
       <c r="O35" t="n">
-        <v>96.60158780941657</v>
+        <v>101.4353634121491</v>
       </c>
       <c r="P35" t="n">
         <v>19.31571952068785</v>
@@ -10668,22 +10668,22 @@
         <v>10.51771751634966</v>
       </c>
       <c r="L36" t="n">
-        <v>86.98786972405402</v>
+        <v>86.98786972405401</v>
       </c>
       <c r="M36" t="n">
-        <v>41.45790052871889</v>
+        <v>61.98478877505966</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>24.47851649118591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>74.63054143010294</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.9677599278804</v>
+        <v>39.33181376025071</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10747,10 +10747,10 @@
         <v>52.21209273211041</v>
       </c>
       <c r="L37" t="n">
-        <v>156.2415724034843</v>
+        <v>75.79451390921056</v>
       </c>
       <c r="M37" t="n">
-        <v>74.49319308772453</v>
+        <v>154.9402515819982</v>
       </c>
       <c r="N37" t="n">
         <v>146.1638992537542</v>
@@ -10823,25 +10823,25 @@
         <v>55.96900899333849</v>
       </c>
       <c r="K38" t="n">
-        <v>152.2679536484919</v>
+        <v>32.63200748086223</v>
       </c>
       <c r="L38" t="n">
         <v>3.208383872282923</v>
       </c>
       <c r="M38" t="n">
-        <v>91.21656066331632</v>
+        <v>91.2165606633163</v>
       </c>
       <c r="N38" t="n">
-        <v>81.26251718769959</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>101.4353634121491</v>
       </c>
       <c r="P38" t="n">
-        <v>19.31571952068785</v>
+        <v>100.5782367083874</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.16464093379577</v>
+        <v>182.8005871014254</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,25 +10899,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>52.34268454952029</v>
       </c>
       <c r="K39" t="n">
         <v>10.51771751634966</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>86.98786972405401</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>61.98478877505966</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>71.28987476963387</v>
+        <v>74.63054143010294</v>
       </c>
       <c r="P39" t="n">
-        <v>103.0434908598801</v>
+        <v>24.47851649118589</v>
       </c>
       <c r="Q39" t="n">
         <v>39.33181376025071</v>
@@ -10981,13 +10981,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>52.21209273211041</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>156.2415724034843</v>
+        <v>36.60562623585469</v>
       </c>
       <c r="M40" t="n">
-        <v>151.7218857636357</v>
+        <v>139.597465642812</v>
       </c>
       <c r="N40" t="n">
         <v>146.1638992537542</v>
@@ -10996,7 +10996,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>57.77787063812997</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11066,16 +11066,16 @@
         <v>3.208383872282923</v>
       </c>
       <c r="M41" t="n">
-        <v>81.65997910784077</v>
+        <v>59.01174525691968</v>
       </c>
       <c r="N41" t="n">
-        <v>72.09206013951595</v>
+        <v>76.5397112349566</v>
       </c>
       <c r="O41" t="n">
-        <v>91.87878185667358</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>19.31571952068785</v>
+        <v>129.395084132842</v>
       </c>
       <c r="Q41" t="n">
         <v>173.2440055459499</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>52.34268454952029</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>10.51771751634966</v>
       </c>
       <c r="L42" t="n">
-        <v>77.43128816857848</v>
+        <v>77.43128816857853</v>
       </c>
       <c r="M42" t="n">
-        <v>31.38810081639404</v>
+        <v>52.42820721958418</v>
       </c>
       <c r="N42" t="n">
-        <v>36.34816584619239</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>65.07395987462741</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>6.63366852674125</v>
       </c>
       <c r="Q42" t="n">
         <v>39.33181376025071</v>
@@ -11221,19 +11221,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>146.6849908480088</v>
+        <v>146.6849908480089</v>
       </c>
       <c r="M43" t="n">
-        <v>119.2550172547829</v>
+        <v>145.3836700265228</v>
       </c>
       <c r="N43" t="n">
-        <v>26.52795308612454</v>
+        <v>136.6073176982787</v>
       </c>
       <c r="O43" t="n">
-        <v>155.1004945947769</v>
+        <v>96.12116988679421</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>57.77787063812997</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>55.96900899333849</v>
+        <v>65.039553741997</v>
       </c>
       <c r="K44" t="n">
         <v>32.63200748086223</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.070544748658509</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>19.31571952068785</v>
@@ -11455,22 +11455,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>80.63147823642375</v>
+        <v>52.21209273211041</v>
       </c>
       <c r="L46" t="n">
-        <v>65.02501174016803</v>
+        <v>36.60562623585469</v>
       </c>
       <c r="M46" t="n">
         <v>63.72369091868194</v>
       </c>
       <c r="N46" t="n">
-        <v>53.7990805902636</v>
+        <v>54.94733859043788</v>
       </c>
       <c r="O46" t="n">
-        <v>45.02112998262275</v>
+        <v>73.44051548693609</v>
       </c>
       <c r="P46" t="n">
-        <v>57.77787063812997</v>
+        <v>85.04899814226903</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23258,10 +23258,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>317.178315933913</v>
+        <v>322.9111893736947</v>
       </c>
       <c r="D11" t="n">
-        <v>312.3213392233701</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,7 +23270,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.8290557756886</v>
+        <v>365.7344799385941</v>
       </c>
       <c r="H11" t="n">
         <v>324.3824590016607</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.29795737564318</v>
+        <v>9.203381538548641</v>
       </c>
       <c r="S11" t="n">
-        <v>175.4385469486081</v>
+        <v>127.3439711115136</v>
       </c>
       <c r="T11" t="n">
         <v>216.6448077497043</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>321.6365248413745</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>338.1433628189591</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23355,7 +23355,7 @@
         <v>104.620298117841</v>
       </c>
       <c r="I12" t="n">
-        <v>62.24908651560898</v>
+        <v>62.24908651560897</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23388,19 +23388,19 @@
         <v>157.0373292271323</v>
       </c>
       <c r="T12" t="n">
-        <v>154.6248613188329</v>
+        <v>154.6248613188328</v>
       </c>
       <c r="U12" t="n">
         <v>177.7949319515189</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>184.7060113123308</v>
       </c>
       <c r="W12" t="n">
         <v>203.6004073238251</v>
       </c>
       <c r="X12" t="n">
-        <v>157.678409366383</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,10 +23434,10 @@
         <v>156.349900222715</v>
       </c>
       <c r="I13" t="n">
-        <v>135.5711122300509</v>
+        <v>122.5469964510245</v>
       </c>
       <c r="J13" t="n">
-        <v>35.07046005806812</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.4759231880836</v>
+        <v>99.47592318808357</v>
       </c>
       <c r="S13" t="n">
         <v>164.401847384114</v>
       </c>
       <c r="T13" t="n">
-        <v>177.0265575852355</v>
+        <v>225.12113342233</v>
       </c>
       <c r="U13" t="n">
         <v>286.2829724713085</v>
@@ -23501,7 +23501,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>333.8357942351673</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23513,7 +23513,7 @@
         <v>324.3824590016607</v>
       </c>
       <c r="I14" t="n">
-        <v>153.6617743103945</v>
+        <v>105.5671984733</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,13 +23540,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>57.29795737564318</v>
+        <v>14.9362549783303</v>
       </c>
       <c r="S14" t="n">
-        <v>175.4385469486081</v>
+        <v>127.3439711115136</v>
       </c>
       <c r="T14" t="n">
-        <v>216.6448077497043</v>
+        <v>168.5502319126097</v>
       </c>
       <c r="U14" t="n">
         <v>251.2277583686808</v>
@@ -23555,13 +23555,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>306.8792663201002</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>321.6365248413745</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>338.1433628189591</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23583,16 +23583,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>96.97463655628937</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>88.46045208222264</v>
+        <v>136.5550279193172</v>
       </c>
       <c r="H15" t="n">
-        <v>56.52572228074654</v>
+        <v>104.620298117841</v>
       </c>
       <c r="I15" t="n">
-        <v>19.88738411829615</v>
+        <v>62.24908651560897</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,19 +23622,19 @@
         <v>51.20233530809902</v>
       </c>
       <c r="S15" t="n">
-        <v>157.0373292271323</v>
+        <v>108.9427533900377</v>
       </c>
       <c r="T15" t="n">
-        <v>196.9865637161457</v>
+        <v>148.8919878790512</v>
       </c>
       <c r="U15" t="n">
         <v>225.8895077886134</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>184.7060113123307</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>209.3332807636068</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>104.0722602492563</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>97.32647218583671</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3299364634488</v>
+        <v>119.2353606263543</v>
       </c>
       <c r="H16" t="n">
-        <v>156.349900222715</v>
+        <v>108.2553243856205</v>
       </c>
       <c r="I16" t="n">
         <v>135.5711122300509</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.80871501590937</v>
+        <v>30.80871501590936</v>
       </c>
       <c r="R16" t="n">
         <v>147.5704990251781</v>
@@ -23704,16 +23704,16 @@
         <v>212.4964232212085</v>
       </c>
       <c r="T16" t="n">
-        <v>177.0265575852355</v>
+        <v>225.12113342233</v>
       </c>
       <c r="U16" t="n">
-        <v>238.188396634214</v>
+        <v>286.2829724713085</v>
       </c>
       <c r="V16" t="n">
-        <v>204.0430674867335</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>244.1612959392782</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23735,19 +23735,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>303.9039021893074</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>324.2792126796918</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>349.2248883491415</v>
+        <v>356.0969063103358</v>
       </c>
       <c r="G17" t="n">
         <v>356.1778983831186</v>
       </c>
       <c r="H17" t="n">
-        <v>324.3824590016607</v>
+        <v>266.7313016090907</v>
       </c>
       <c r="I17" t="n">
         <v>153.6617743103945</v>
@@ -23783,7 +23783,7 @@
         <v>175.4385469486081</v>
       </c>
       <c r="T17" t="n">
-        <v>216.6448077497043</v>
+        <v>158.9936503571343</v>
       </c>
       <c r="U17" t="n">
         <v>251.2277583686808</v>
@@ -23829,7 +23829,7 @@
         <v>104.620298117841</v>
       </c>
       <c r="I18" t="n">
-        <v>11.46994708423335</v>
+        <v>62.24908651560897</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,22 +23859,22 @@
         <v>51.20233530809902</v>
       </c>
       <c r="S18" t="n">
-        <v>99.38617183456228</v>
+        <v>157.0373292271323</v>
       </c>
       <c r="T18" t="n">
-        <v>139.3354063235757</v>
+        <v>196.9865637161457</v>
       </c>
       <c r="U18" t="n">
         <v>168.2383503960434</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>175.1494297568553</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>194.0438257683496</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>154.9938457721018</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>109.5956637060578</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>116.5507970320732</v>
+        <v>167.3299364634488</v>
       </c>
       <c r="H19" t="n">
-        <v>98.69874283014505</v>
+        <v>156.349900222715</v>
       </c>
       <c r="I19" t="n">
         <v>135.5711122300509</v>
@@ -23944,19 +23944,19 @@
         <v>225.12113342233</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2829724713085</v>
+        <v>235.5038330399329</v>
       </c>
       <c r="V19" t="n">
         <v>194.486485931258</v>
       </c>
       <c r="W19" t="n">
-        <v>228.871840944021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>160.9334959595248</v>
       </c>
     </row>
     <row r="20">
@@ -23978,10 +23978,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>267.5649092413007</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>274.5179192752778</v>
+        <v>413.8290557756886</v>
       </c>
       <c r="H20" t="n">
         <v>324.3824590016607</v>
@@ -24014,25 +24014,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>57.29795737564316</v>
       </c>
       <c r="S20" t="n">
-        <v>36.12741044819737</v>
+        <v>36.12741044819728</v>
       </c>
       <c r="T20" t="n">
-        <v>151.2375160957857</v>
+        <v>216.6448077497043</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2277583686808</v>
+        <v>111.9166218682699</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>188.4411219697241</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>247.0258516489072</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24063,10 +24063,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>104.620298117841</v>
+        <v>41.40802702279448</v>
       </c>
       <c r="I21" t="n">
-        <v>62.24908651560897</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,13 +24096,13 @@
         <v>51.20233530809902</v>
       </c>
       <c r="S21" t="n">
-        <v>31.57597161647688</v>
+        <v>157.0373292271323</v>
       </c>
       <c r="T21" t="n">
-        <v>57.67542721573494</v>
+        <v>196.9865637161457</v>
       </c>
       <c r="U21" t="n">
-        <v>86.57837128820265</v>
+        <v>225.8895077886134</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,10 +24111,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>66.46184870306664</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>66.37155927689352</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>44.54157206906598</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,19 +24172,19 @@
         <v>30.80871501590936</v>
       </c>
       <c r="R22" t="n">
-        <v>24.8652499956163</v>
+        <v>8.259362524767255</v>
       </c>
       <c r="S22" t="n">
-        <v>73.18528672079776</v>
+        <v>212.4964232212085</v>
       </c>
       <c r="T22" t="n">
-        <v>85.80999692191926</v>
+        <v>85.80999692191918</v>
       </c>
       <c r="U22" t="n">
         <v>286.2829724713085</v>
       </c>
       <c r="V22" t="n">
-        <v>112.8265068234172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>79.27351685168395</v>
       </c>
     </row>
     <row r="23">
@@ -24206,16 +24206,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>197.5423697662834</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>214.1998480675376</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>259.1390019599505</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.8290557756886</v>
@@ -24257,22 +24257,22 @@
         <v>175.4385469486081</v>
       </c>
       <c r="T23" t="n">
-        <v>48.91428574498013</v>
+        <v>216.6448077497043</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2277583686808</v>
+        <v>103.4907145869198</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>160.0217364654107</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>202.0005786737449</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.5074166513294</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24282,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.102947090514419</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>4.977976983591589</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.5550279193172</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>104.620298117841</v>
+        <v>59.49419273987679</v>
       </c>
       <c r="I24" t="n">
         <v>62.24908651560897</v>
@@ -24333,10 +24333,10 @@
         <v>51.20233530809902</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>157.0373292271323</v>
       </c>
       <c r="T24" t="n">
-        <v>29.25604171142155</v>
+        <v>196.9865637161457</v>
       </c>
       <c r="U24" t="n">
         <v>225.8895077886134</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>137.1043760784407</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3299364634488</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.349900222715</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>135.5711122300509</v>
+        <v>100.1773497897817</v>
       </c>
       <c r="J25" t="n">
         <v>46.6234474394716</v>
@@ -24412,7 +24412,7 @@
         <v>147.5704990251781</v>
       </c>
       <c r="S25" t="n">
-        <v>44.76590121648437</v>
+        <v>212.4964232212085</v>
       </c>
       <c r="T25" t="n">
         <v>225.12113342233</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>215.0033196587564</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>197.5423697662834</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,13 +24452,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>239.1455237369873</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>266.0920119939276</v>
+        <v>413.8290557756886</v>
       </c>
       <c r="H26" t="n">
-        <v>156.6519369969365</v>
+        <v>324.3824590016607</v>
       </c>
       <c r="I26" t="n">
         <v>153.6617743103945</v>
@@ -24500,16 +24500,16 @@
         <v>251.2277583686808</v>
       </c>
       <c r="V26" t="n">
-        <v>160.0217364654108</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>221.994056896708</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>218.5074166513294</v>
       </c>
     </row>
     <row r="27">
@@ -24519,22 +24519,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>4.97797698359156</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>133.8871965309401</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.5550279193172</v>
       </c>
       <c r="H27" t="n">
         <v>104.620298117841</v>
@@ -24576,19 +24576,19 @@
         <v>196.9865637161457</v>
       </c>
       <c r="U27" t="n">
-        <v>58.15898578388925</v>
+        <v>225.8895077886134</v>
       </c>
       <c r="V27" t="n">
-        <v>65.07006514470112</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>83.96446115619545</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>194.107937656002</v>
       </c>
     </row>
     <row r="28">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12.10145817721315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>135.0474836536397</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3299364634488</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.349900222715</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>135.5711122300509</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>138.78595455483</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>57.979133384313</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.85413134737064</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24692,13 +24692,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.8290557756886</v>
+        <v>246.0985337709644</v>
       </c>
       <c r="H29" t="n">
-        <v>324.3824590016607</v>
+        <v>162.5766675255701</v>
       </c>
       <c r="I29" t="n">
-        <v>153.6617743103945</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,19 +24731,19 @@
         <v>175.4385469486081</v>
       </c>
       <c r="T29" t="n">
-        <v>68.90776396794328</v>
+        <v>48.91428574498011</v>
       </c>
       <c r="U29" t="n">
         <v>251.2277583686808</v>
       </c>
       <c r="V29" t="n">
-        <v>160.0217364654108</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>181.5104467126889</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>202.0005786737449</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24810,22 +24810,22 @@
         <v>157.0373292271323</v>
       </c>
       <c r="T30" t="n">
-        <v>49.24951993438469</v>
+        <v>196.9865637161457</v>
       </c>
       <c r="U30" t="n">
-        <v>58.15898578388925</v>
+        <v>225.8895077886134</v>
       </c>
       <c r="V30" t="n">
-        <v>65.07006514470112</v>
+        <v>85.06354336766427</v>
       </c>
       <c r="W30" t="n">
-        <v>83.96446115619545</v>
+        <v>83.96446115619543</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>38.0424631987533</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>37.95217377258018</v>
       </c>
     </row>
     <row r="31">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12.10145817721315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3947283303550648</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,16 +24850,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3299364634488</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.349900222715</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>135.5711122300509</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>46.6234474394716</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,13 +24880,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>30.80871501590936</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>147.5704990251781</v>
+        <v>33.3250006008404</v>
       </c>
       <c r="S31" t="n">
-        <v>44.76590121648437</v>
+        <v>212.4964232212085</v>
       </c>
       <c r="T31" t="n">
         <v>225.12113342233</v>
@@ -24923,19 +24923,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>234.1933262905008</v>
+        <v>214.1998480675376</v>
       </c>
       <c r="F32" t="n">
-        <v>239.1455237369873</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>246.0985337709644</v>
       </c>
       <c r="H32" t="n">
-        <v>324.3824590016607</v>
+        <v>156.6519369969365</v>
       </c>
       <c r="I32" t="n">
-        <v>153.6617743103945</v>
+        <v>5.924730528633575</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24977,7 +24977,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>181.5104467126889</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25008,10 +25008,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5550279193172</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>104.620298117841</v>
+        <v>93.43828225539725</v>
       </c>
       <c r="I33" t="n">
         <v>62.24908651560897</v>
@@ -25050,19 +25050,19 @@
         <v>196.9865637161457</v>
       </c>
       <c r="U33" t="n">
-        <v>58.15898578388925</v>
+        <v>58.15898578388922</v>
       </c>
       <c r="V33" t="n">
-        <v>65.07006514470112</v>
+        <v>65.07006514470109</v>
       </c>
       <c r="W33" t="n">
-        <v>83.96446115619545</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>38.0424631987533</v>
       </c>
       <c r="Y33" t="n">
-        <v>57.94565199554339</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>12.10145817721312</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3299364634488</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.349900222715</v>
       </c>
       <c r="I34" t="n">
         <v>135.5711122300509</v>
@@ -25120,10 +25120,10 @@
         <v>30.80871501590936</v>
       </c>
       <c r="R34" t="n">
-        <v>147.5704990251781</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>177.1026607809393</v>
+        <v>44.76590121648434</v>
       </c>
       <c r="T34" t="n">
         <v>225.12113342233</v>
@@ -25138,10 +25138,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>57.97913338431297</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.4181085955119</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>277.3585002790325</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>245.6369456033779</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>262.2944239046321</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.8290557756886</v>
+        <v>294.1931096080589</v>
       </c>
       <c r="H35" t="n">
         <v>324.3824590016607</v>
@@ -25199,22 +25199,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>57.29795737564316</v>
       </c>
       <c r="S35" t="n">
-        <v>55.80260078097847</v>
+        <v>175.4385469486081</v>
       </c>
       <c r="T35" t="n">
         <v>216.6448077497043</v>
       </c>
       <c r="U35" t="n">
-        <v>131.5918122010511</v>
+        <v>251.2277583686808</v>
       </c>
       <c r="V35" t="n">
-        <v>208.1163123025053</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>301.163584708608</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>46.8972374822377</v>
       </c>
       <c r="C36" t="n">
-        <v>118.5354929119666</v>
+        <v>67.33315760386762</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25278,13 +25278,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>51.20233530809902</v>
       </c>
       <c r="S36" t="n">
-        <v>37.40138305950261</v>
+        <v>157.0373292271323</v>
       </c>
       <c r="T36" t="n">
-        <v>77.35061754851604</v>
+        <v>196.9865637161457</v>
       </c>
       <c r="U36" t="n">
         <v>225.8895077886134</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>86.04674960967472</v>
       </c>
     </row>
     <row r="37">
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>74.45663879748918</v>
       </c>
       <c r="C37" t="n">
-        <v>61.8714797141797</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>26.79801647893952</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>25.78510185530159</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>47.69399029581918</v>
+        <v>167.3299364634488</v>
       </c>
       <c r="H37" t="n">
         <v>156.349900222715</v>
@@ -25363,13 +25363,13 @@
         <v>212.4964232212085</v>
       </c>
       <c r="T37" t="n">
-        <v>225.12113342233</v>
+        <v>105.4851872547004</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2829724713085</v>
+        <v>166.6470263036789</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>132.5016971561984</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>277.3585002790325</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>245.6369456033779</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>235.0470954530533</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,10 +25403,10 @@
         <v>287.2400995740818</v>
       </c>
       <c r="G38" t="n">
-        <v>413.8290557756886</v>
+        <v>294.1931096080589</v>
       </c>
       <c r="H38" t="n">
-        <v>324.3824590016607</v>
+        <v>204.746512834031</v>
       </c>
       <c r="I38" t="n">
         <v>153.6617743103945</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>264.3557592940209</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,10 +25470,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>53.0725528206861</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>42.06972418019063</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25485,10 +25485,10 @@
         <v>136.5550279193172</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>104.620298117841</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49404324900188</v>
+        <v>62.24908651560897</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,22 +25521,22 @@
         <v>157.0373292271323</v>
       </c>
       <c r="T39" t="n">
-        <v>196.9865637161457</v>
+        <v>77.35061754851606</v>
       </c>
       <c r="U39" t="n">
-        <v>106.2535616209837</v>
+        <v>225.8895077886134</v>
       </c>
       <c r="V39" t="n">
-        <v>113.1646409817956</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>132.05903699329</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>86.04674960967472</v>
       </c>
     </row>
     <row r="40">
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>26.79801647893952</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>61.9545950790007</v>
+        <v>167.3299364634488</v>
       </c>
       <c r="H40" t="n">
-        <v>36.71395405508538</v>
+        <v>156.349900222715</v>
       </c>
       <c r="I40" t="n">
-        <v>15.93516606242129</v>
+        <v>135.5711122300509</v>
       </c>
       <c r="J40" t="n">
         <v>46.6234474394716</v>
@@ -25591,19 +25591,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>30.80871501590936</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>147.5704990251781</v>
+        <v>27.93455285754845</v>
       </c>
       <c r="S40" t="n">
-        <v>212.4964232212085</v>
+        <v>92.86047705357888</v>
       </c>
       <c r="T40" t="n">
-        <v>225.12113342233</v>
+        <v>105.4851872547004</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2829724713085</v>
+        <v>211.7163461027698</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,25 +25625,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.7759373130953</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>255.1935271588534</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>271.8510054601077</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>296.7966811295573</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.8290557756886</v>
       </c>
       <c r="H41" t="n">
-        <v>324.3824590016607</v>
+        <v>214.3030943895065</v>
       </c>
       <c r="I41" t="n">
         <v>153.6617743103945</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>252.2830643670277</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>259.6517360663149</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>276.1585740438994</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>56.45381903771317</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25716,10 +25716,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>34.98984778122977</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>39.59712356893183</v>
+        <v>136.5550279193172</v>
       </c>
       <c r="H42" t="n">
         <v>104.620298117841</v>
@@ -25764,16 +25764,16 @@
         <v>225.8895077886134</v>
       </c>
       <c r="V42" t="n">
-        <v>122.7212225372712</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>141.6156185487655</v>
+        <v>141.6156185487654</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>108.8150808530922</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>95.60333116515019</v>
       </c>
     </row>
     <row r="43">
@@ -25795,10 +25795,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>35.34168341077708</v>
       </c>
       <c r="G43" t="n">
-        <v>57.25057185129472</v>
+        <v>57.25057185129467</v>
       </c>
       <c r="H43" t="n">
         <v>156.349900222715</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>30.80871501590936</v>
       </c>
       <c r="R43" t="n">
         <v>147.5704990251781</v>
@@ -25837,22 +25837,22 @@
         <v>212.4964232212085</v>
       </c>
       <c r="T43" t="n">
-        <v>115.0417688101759</v>
+        <v>128.1632290719447</v>
       </c>
       <c r="U43" t="n">
-        <v>220.1337831368326</v>
+        <v>286.2829724713085</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>176.4436337244369</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5052887399406</v>
       </c>
     </row>
     <row r="44">
@@ -25871,13 +25871,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>353.5109845679484</v>
       </c>
       <c r="F44" t="n">
         <v>378.4566602373981</v>
       </c>
       <c r="G44" t="n">
-        <v>413.8290557756886</v>
+        <v>385.4096702713753</v>
       </c>
       <c r="H44" t="n">
         <v>324.3824590016607</v>
@@ -25913,7 +25913,7 @@
         <v>57.29795737564316</v>
       </c>
       <c r="S44" t="n">
-        <v>147.0191614442948</v>
+        <v>175.4385469486081</v>
       </c>
       <c r="T44" t="n">
         <v>216.6448077497043</v>
@@ -25931,7 +25931,7 @@
         <v>344.6993059262699</v>
       </c>
       <c r="Y44" t="n">
-        <v>357.8185531517403</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,25 +25944,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>147.6767042361166</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>119.0256800603254</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>129.2256949510876</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>116.6498268890705</v>
       </c>
       <c r="G45" t="n">
         <v>136.5550279193172</v>
       </c>
       <c r="H45" t="n">
-        <v>79.58850336564186</v>
+        <v>104.620298117841</v>
       </c>
       <c r="I45" t="n">
-        <v>33.82970101129563</v>
+        <v>62.24908651560897</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.78294980378568</v>
+        <v>51.20233530809902</v>
       </c>
       <c r="S45" t="n">
         <v>157.0373292271323</v>
@@ -25998,7 +25998,7 @@
         <v>196.9865637161457</v>
       </c>
       <c r="U45" t="n">
-        <v>197.4701222843001</v>
+        <v>225.8895077886134</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.8001854297381</v>
+        <v>151.412594677624</v>
       </c>
       <c r="C46" t="n">
         <v>138.8274355943145</v>
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0145771422558</v>
+        <v>121.40216789437</v>
       </c>
       <c r="F46" t="n">
-        <v>117.0016625186179</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3299364634488</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>258.1036128322777</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>350006.314319731</v>
+        <v>350006.3143197311</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>350006.3143197311</v>
+        <v>350006.314319731</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>453347.0987489543</v>
+        <v>453347.0987489542</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>453347.0987489542</v>
+        <v>453347.0987489543</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>453347.0987489541</v>
+        <v>453347.0987489543</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>411638.3390008892</v>
+        <v>411638.3390008893</v>
       </c>
     </row>
     <row r="14">
@@ -26332,16 +26332,16 @@
         <v>160607.6422450003</v>
       </c>
       <c r="I2" t="n">
-        <v>168658.8086873555</v>
+        <v>168658.8086873556</v>
       </c>
       <c r="J2" t="n">
         <v>168658.8086873556</v>
       </c>
       <c r="K2" t="n">
+        <v>168658.8086873554</v>
+      </c>
+      <c r="L2" t="n">
         <v>168658.8086873555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>168658.8086873556</v>
       </c>
       <c r="M2" t="n">
         <v>155033.692304028</v>
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>308870.1144802773</v>
+        <v>308870.1144802774</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2619.315655632515</v>
+        <v>2619.315655632496</v>
       </c>
       <c r="H3" t="n">
-        <v>22032.59730310742</v>
+        <v>22032.59730310743</v>
       </c>
       <c r="I3" t="n">
-        <v>7557.311412692523</v>
+        <v>7557.311412692511</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58144.74570109071</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="C4" t="n">
-        <v>58144.74570109071</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="D4" t="n">
-        <v>58144.74570109071</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="E4" t="n">
-        <v>12914.75153510305</v>
+        <v>13132.67821508875</v>
       </c>
       <c r="F4" t="n">
-        <v>12914.75153510305</v>
+        <v>13132.67821508875</v>
       </c>
       <c r="G4" t="n">
-        <v>14197.88145150063</v>
+        <v>14437.38983623215</v>
       </c>
       <c r="H4" t="n">
-        <v>26850.32834595255</v>
+        <v>27302.8301403733</v>
       </c>
       <c r="I4" t="n">
-        <v>31317.81058889421</v>
+        <v>31845.52480685878</v>
       </c>
       <c r="J4" t="n">
-        <v>31317.81058889421</v>
+        <v>31845.52480685877</v>
       </c>
       <c r="K4" t="n">
-        <v>31317.81058889421</v>
+        <v>31845.52480685877</v>
       </c>
       <c r="L4" t="n">
-        <v>31317.81058889421</v>
+        <v>31845.52480685878</v>
       </c>
       <c r="M4" t="n">
-        <v>23757.4196894703</v>
+        <v>24157.85073280497</v>
       </c>
       <c r="N4" t="n">
-        <v>23757.4196894703</v>
+        <v>24157.85073280497</v>
       </c>
       <c r="O4" t="n">
-        <v>22255.14025433506</v>
+        <v>22630.27962978788</v>
       </c>
       <c r="P4" t="n">
-        <v>10825.31945110996</v>
+        <v>11008.16314759977</v>
       </c>
     </row>
     <row r="5">
@@ -26488,16 +26488,16 @@
         <v>16461.52475180851</v>
       </c>
       <c r="I5" t="n">
-        <v>18189.42339047076</v>
+        <v>18189.42339047077</v>
       </c>
       <c r="J5" t="n">
-        <v>18189.42339047076</v>
+        <v>18189.42339047077</v>
       </c>
       <c r="K5" t="n">
-        <v>18189.42339047076</v>
+        <v>18189.42339047077</v>
       </c>
       <c r="L5" t="n">
-        <v>18189.42339047076</v>
+        <v>18189.42339047077</v>
       </c>
       <c r="M5" t="n">
         <v>15265.27317957542</v>
@@ -26506,7 +26506,7 @@
         <v>15265.27317957542</v>
       </c>
       <c r="O5" t="n">
-        <v>14684.2330210025</v>
+        <v>14684.23302100251</v>
       </c>
       <c r="P5" t="n">
         <v>9719.306291245784</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15735.0598303557</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>15735.05983035571</v>
+        <v>14750.73248915089</v>
       </c>
       <c r="D6" t="n">
-        <v>15735.0598303557</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="E6" t="n">
-        <v>-197934.2873232793</v>
+        <v>-198152.2140032651</v>
       </c>
       <c r="F6" t="n">
-        <v>110935.827156998</v>
+        <v>110717.9004770123</v>
       </c>
       <c r="G6" t="n">
-        <v>109159.7056905307</v>
+        <v>108920.1973057991</v>
       </c>
       <c r="H6" t="n">
-        <v>95263.19184413184</v>
+        <v>94810.69004971109</v>
       </c>
       <c r="I6" t="n">
-        <v>111594.263295298</v>
+        <v>111066.5490773336</v>
       </c>
       <c r="J6" t="n">
-        <v>119151.5747079906</v>
+        <v>118623.860490026</v>
       </c>
       <c r="K6" t="n">
-        <v>119151.5747079905</v>
+        <v>118623.8604900259</v>
       </c>
       <c r="L6" t="n">
-        <v>119151.5747079906</v>
+        <v>118623.860490026</v>
       </c>
       <c r="M6" t="n">
-        <v>116010.9994349823</v>
+        <v>115610.5683916476</v>
       </c>
       <c r="N6" t="n">
-        <v>116010.9994349823</v>
+        <v>115610.5683916476</v>
       </c>
       <c r="O6" t="n">
-        <v>115386.9547645547</v>
+        <v>115011.8153891019</v>
       </c>
       <c r="P6" t="n">
-        <v>108647.5608722518</v>
+        <v>108464.717175762</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>48.0945758370945</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="F4" t="n">
-        <v>48.09457583709451</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="G4" t="n">
         <v>57.65115739256998</v>
@@ -26820,13 +26820,13 @@
         <v>167.7305220047242</v>
       </c>
       <c r="M4" t="n">
-        <v>119.6359461676297</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="N4" t="n">
-        <v>119.6359461676297</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="O4" t="n">
-        <v>110.0793646121541</v>
+        <v>110.0793646121542</v>
       </c>
       <c r="P4" t="n">
         <v>28.41938550431334</v>
@@ -27018,19 +27018,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>48.0945758370945</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.556581555475546</v>
+        <v>9.556581555475475</v>
       </c>
       <c r="H4" t="n">
-        <v>81.65997910784078</v>
+        <v>81.65997910784084</v>
       </c>
       <c r="I4" t="n">
-        <v>28.4193855043134</v>
+        <v>28.41938550431335</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>48.0945758370945</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9.556581555475546</v>
+        <v>9.556581555475475</v>
       </c>
       <c r="P4" t="n">
-        <v>81.65997910784078</v>
+        <v>81.65997910784084</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.473681739446503</v>
+        <v>1.473681739446504</v>
       </c>
       <c r="H11" t="n">
         <v>15.09234311410651</v>
@@ -31768,31 +31768,31 @@
         <v>232.5580310977043</v>
       </c>
       <c r="M11" t="n">
-        <v>258.765618731586</v>
+        <v>258.7656187315861</v>
       </c>
       <c r="N11" t="n">
-        <v>262.9527169737884</v>
+        <v>262.9527169737885</v>
       </c>
       <c r="O11" t="n">
-        <v>248.2987941771672</v>
+        <v>248.2987941771673</v>
       </c>
       <c r="P11" t="n">
-        <v>211.9172762345816</v>
+        <v>211.9172762345817</v>
       </c>
       <c r="Q11" t="n">
         <v>159.1410489406537</v>
       </c>
       <c r="R11" t="n">
-        <v>92.5711605655065</v>
+        <v>92.57116056550652</v>
       </c>
       <c r="S11" t="n">
-        <v>33.58152263763723</v>
+        <v>33.58152263763724</v>
       </c>
       <c r="T11" t="n">
         <v>6.451041814427072</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1178945391557202</v>
+        <v>0.1178945391557203</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7884892438934764</v>
+        <v>0.7884892438934765</v>
       </c>
       <c r="H12" t="n">
-        <v>7.615146118655418</v>
+        <v>7.61514611865542</v>
       </c>
       <c r="I12" t="n">
         <v>27.1475463358061</v>
       </c>
       <c r="J12" t="n">
-        <v>74.49494211714639</v>
+        <v>74.49494211714641</v>
       </c>
       <c r="K12" t="n">
         <v>127.3237214580093</v>
@@ -31862,16 +31862,16 @@
         <v>100.6499603257708</v>
       </c>
       <c r="R12" t="n">
-        <v>48.95549884454411</v>
+        <v>48.95549884454412</v>
       </c>
       <c r="S12" t="n">
         <v>14.64584187670557</v>
       </c>
       <c r="T12" t="n">
-        <v>3.178164978675897</v>
+        <v>3.178164978675898</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05187429236141294</v>
+        <v>0.05187429236141295</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,34 +31911,34 @@
         <v>0.6610428950099176</v>
       </c>
       <c r="H13" t="n">
-        <v>5.877272284724544</v>
+        <v>5.877272284724545</v>
       </c>
       <c r="I13" t="n">
-        <v>19.87936269720734</v>
+        <v>19.87936269720735</v>
       </c>
       <c r="J13" t="n">
-        <v>46.73573267720117</v>
+        <v>46.73573267720118</v>
       </c>
       <c r="K13" t="n">
-        <v>76.80116543842496</v>
+        <v>76.80116543842497</v>
       </c>
       <c r="L13" t="n">
-        <v>98.27905004538358</v>
+        <v>98.2790500453836</v>
       </c>
       <c r="M13" t="n">
-        <v>103.6214785332364</v>
+        <v>103.6214785332365</v>
       </c>
       <c r="N13" t="n">
-        <v>101.1575913791086</v>
+        <v>101.1575913791087</v>
       </c>
       <c r="O13" t="n">
-        <v>93.43540846922002</v>
+        <v>93.43540846922004</v>
       </c>
       <c r="P13" t="n">
-        <v>79.95013341101763</v>
+        <v>79.95013341101765</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.35332823578501</v>
+        <v>55.35332823578502</v>
       </c>
       <c r="R13" t="n">
         <v>29.72289235199138</v>
@@ -31947,10 +31947,10 @@
         <v>11.52017481576374</v>
       </c>
       <c r="T13" t="n">
-        <v>2.824456005951465</v>
+        <v>2.824456005951466</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03605688518235918</v>
+        <v>0.03605688518235919</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.473681739446503</v>
+        <v>1.473681739446504</v>
       </c>
       <c r="H14" t="n">
         <v>15.09234311410651</v>
@@ -32005,31 +32005,31 @@
         <v>232.5580310977043</v>
       </c>
       <c r="M14" t="n">
-        <v>258.765618731586</v>
+        <v>258.7656187315861</v>
       </c>
       <c r="N14" t="n">
-        <v>262.9527169737884</v>
+        <v>262.9527169737885</v>
       </c>
       <c r="O14" t="n">
-        <v>248.2987941771672</v>
+        <v>248.2987941771673</v>
       </c>
       <c r="P14" t="n">
-        <v>211.9172762345816</v>
+        <v>211.9172762345817</v>
       </c>
       <c r="Q14" t="n">
         <v>159.1410489406537</v>
       </c>
       <c r="R14" t="n">
-        <v>92.5711605655065</v>
+        <v>92.57116056550652</v>
       </c>
       <c r="S14" t="n">
-        <v>33.58152263763723</v>
+        <v>33.58152263763724</v>
       </c>
       <c r="T14" t="n">
         <v>6.451041814427072</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1178945391557202</v>
+        <v>0.1178945391557203</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7884892438934764</v>
+        <v>0.7884892438934765</v>
       </c>
       <c r="H15" t="n">
-        <v>7.615146118655418</v>
+        <v>7.61514611865542</v>
       </c>
       <c r="I15" t="n">
         <v>27.1475463358061</v>
       </c>
       <c r="J15" t="n">
-        <v>74.49494211714639</v>
+        <v>74.49494211714641</v>
       </c>
       <c r="K15" t="n">
         <v>127.3237214580093</v>
@@ -32084,7 +32084,7 @@
         <v>171.2024562234498</v>
       </c>
       <c r="M15" t="n">
-        <v>190.2286097591128</v>
+        <v>190.2286097591129</v>
       </c>
       <c r="N15" t="n">
         <v>179.4362879204278</v>
@@ -32099,16 +32099,16 @@
         <v>100.6499603257708</v>
       </c>
       <c r="R15" t="n">
-        <v>48.95549884454411</v>
+        <v>48.95549884454412</v>
       </c>
       <c r="S15" t="n">
         <v>14.64584187670557</v>
       </c>
       <c r="T15" t="n">
-        <v>3.178164978675897</v>
+        <v>3.178164978675898</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05187429236141294</v>
+        <v>0.05187429236141295</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,34 +32148,34 @@
         <v>0.6610428950099176</v>
       </c>
       <c r="H16" t="n">
-        <v>5.877272284724544</v>
+        <v>5.877272284724545</v>
       </c>
       <c r="I16" t="n">
-        <v>19.87936269720734</v>
+        <v>19.87936269720735</v>
       </c>
       <c r="J16" t="n">
-        <v>46.73573267720117</v>
+        <v>46.73573267720118</v>
       </c>
       <c r="K16" t="n">
-        <v>76.80116543842496</v>
+        <v>76.80116543842497</v>
       </c>
       <c r="L16" t="n">
-        <v>98.27905004538358</v>
+        <v>98.2790500453836</v>
       </c>
       <c r="M16" t="n">
-        <v>103.6214785332364</v>
+        <v>103.6214785332365</v>
       </c>
       <c r="N16" t="n">
-        <v>101.1575913791086</v>
+        <v>101.1575913791087</v>
       </c>
       <c r="O16" t="n">
-        <v>93.43540846922002</v>
+        <v>93.43540846922004</v>
       </c>
       <c r="P16" t="n">
-        <v>79.95013341101763</v>
+        <v>79.95013341101765</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.35332823578501</v>
+        <v>55.35332823578502</v>
       </c>
       <c r="R16" t="n">
         <v>29.72289235199138</v>
@@ -32184,10 +32184,10 @@
         <v>11.52017481576374</v>
       </c>
       <c r="T16" t="n">
-        <v>2.824456005951465</v>
+        <v>2.824456005951466</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03605688518235918</v>
+        <v>0.03605688518235919</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34451,7 +34451,7 @@
         <v>127.3237214580093</v>
       </c>
       <c r="L45" t="n">
-        <v>149.2330519762637</v>
+        <v>166.9737652841875</v>
       </c>
       <c r="M45" t="n">
         <v>170.5534194263317</v>
@@ -34460,7 +34460,7 @@
         <v>159.7610975876466</v>
       </c>
       <c r="O45" t="n">
-        <v>171.0156299487578</v>
+        <v>153.274916640834</v>
       </c>
       <c r="P45" t="n">
         <v>150.5668627220797</v>
@@ -35410,25 +35410,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>42.50570035617378</v>
       </c>
       <c r="M11" t="n">
-        <v>46.15136065175732</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="N11" t="n">
-        <v>48.0945758370945</v>
+        <v>33.53965337719757</v>
       </c>
       <c r="O11" t="n">
-        <v>48.0945758370945</v>
+        <v>18.20058275548055</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.0945758370945</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>32.6480764435756</v>
+        <v>32.64807644357563</v>
       </c>
       <c r="M12" t="n">
-        <v>48.0945758370945</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="N12" t="n">
-        <v>48.0945758370945</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="O12" t="n">
-        <v>45.00540473752667</v>
+        <v>45.0054047375267</v>
       </c>
       <c r="P12" t="n">
         <v>16.5924553077495</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>46.15136065175732</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="L13" t="n">
-        <v>48.0945758370945</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="M13" t="n">
-        <v>48.0945758370945</v>
+        <v>46.15136065175736</v>
       </c>
       <c r="N13" t="n">
-        <v>48.0945758370945</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>48.09457583709452</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>48.09457583709451</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,19 +35653,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>28.41938550431328</v>
+        <v>28.41938550431334</v>
       </c>
       <c r="N14" t="n">
-        <v>33.53965337719751</v>
+        <v>33.53965337719757</v>
       </c>
       <c r="O14" t="n">
-        <v>18.2005827554805</v>
+        <v>32.28689760734103</v>
       </c>
       <c r="P14" t="n">
-        <v>14.08631485186058</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.09457583709451</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>32.6480764435756</v>
+        <v>32.64807644357563</v>
       </c>
       <c r="M15" t="n">
-        <v>48.09457583709451</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="N15" t="n">
-        <v>48.09457583709451</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="O15" t="n">
-        <v>45.00540473752667</v>
+        <v>45.0054047375267</v>
       </c>
       <c r="P15" t="n">
         <v>16.5924553077495</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>48.09457583709451</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>46.15136065175737</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>46.15136065175739</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="O16" t="n">
-        <v>48.09457583709451</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>48.09457583709451</v>
+        <v>48.09457583709454</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>57.65115739256998</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35890,19 +35890,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>28.41938550431334</v>
+        <v>57.65115739256998</v>
       </c>
       <c r="N17" t="n">
-        <v>33.53965337719757</v>
+        <v>57.65115739256998</v>
       </c>
       <c r="O17" t="n">
-        <v>51.01393621099998</v>
+        <v>55.32181769994089</v>
       </c>
       <c r="P17" t="n">
-        <v>57.65115739256998</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>57.65115739256998</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>32.64807644357563</v>
+        <v>38.7293623921914</v>
       </c>
       <c r="M18" t="n">
         <v>57.65115739256998</v>
@@ -35975,13 +35975,13 @@
         <v>57.65115739256998</v>
       </c>
       <c r="O18" t="n">
-        <v>45.0054047375267</v>
+        <v>57.65115739256998</v>
       </c>
       <c r="P18" t="n">
         <v>16.5924553077495</v>
       </c>
       <c r="Q18" t="n">
-        <v>18.72703860365904</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>57.65115739256998</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>57.65115739256998</v>
       </c>
       <c r="N19" t="n">
         <v>0.7901440873987807</v>
@@ -36057,7 +36057,7 @@
         <v>57.65115739256998</v>
       </c>
       <c r="P19" t="n">
-        <v>57.65115739256998</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36124,22 +36124,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>139.3111365004108</v>
       </c>
       <c r="M20" t="n">
-        <v>28.41938550431334</v>
+        <v>139.3111365004108</v>
       </c>
       <c r="N20" t="n">
-        <v>105.263018208202</v>
+        <v>139.3111365004108</v>
       </c>
       <c r="O20" t="n">
-        <v>139.3111365004108</v>
+        <v>133.6824037125154</v>
       </c>
       <c r="P20" t="n">
-        <v>139.3111365004108</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>139.3111365004108</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>73.74835079088855</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>32.64807644357563</v>
+        <v>139.3111365004108</v>
       </c>
       <c r="M21" t="n">
-        <v>92.8659142125002</v>
+        <v>139.3111365004108</v>
       </c>
       <c r="N21" t="n">
-        <v>73.73119876596172</v>
+        <v>139.3111365004108</v>
       </c>
       <c r="O21" t="n">
-        <v>139.3111365004108</v>
+        <v>117.0899484047658</v>
       </c>
       <c r="P21" t="n">
-        <v>139.3111365004108</v>
+        <v>16.5924553077495</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>29.10392852396664</v>
+        <v>54.53167361254212</v>
       </c>
       <c r="L22" t="n">
         <v>125.8690753056997</v>
@@ -36288,13 +36288,13 @@
         <v>139.3111365004108</v>
       </c>
       <c r="N22" t="n">
-        <v>139.3111365004108</v>
+        <v>36.6546987359244</v>
       </c>
       <c r="O22" t="n">
         <v>118.0205363832597</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>77.22869267591113</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>113.1276061787353</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>167.7305220047242</v>
       </c>
       <c r="N23" t="n">
-        <v>160.9535312166544</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="O23" t="n">
+        <v>47.8259250379193</v>
+      </c>
+      <c r="P23" t="n">
         <v>167.7305220047242</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>73.74835079088855</v>
       </c>
       <c r="K24" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>32.64807644357563</v>
       </c>
       <c r="M24" t="n">
+        <v>148.5564272209528</v>
+      </c>
+      <c r="N24" t="n">
+        <v>73.73119876596172</v>
+      </c>
+      <c r="O24" t="n">
         <v>167.7305220047242</v>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
         <v>167.7305220047242</v>
-      </c>
-      <c r="O24" t="n">
-        <v>111.7129994653293</v>
-      </c>
-      <c r="P24" t="n">
-        <v>16.5924553077495</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>167.7305220047242</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>160.9535312166545</v>
       </c>
       <c r="N26" t="n">
         <v>167.7305220047242</v>
@@ -36610,10 +36610,10 @@
         <v>167.7305220047242</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>11.80318149054556</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>149.1503497261089</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>167.7305220047242</v>
       </c>
       <c r="M27" t="n">
-        <v>164.6120483567788</v>
+        <v>119.6066436192522</v>
       </c>
       <c r="N27" t="n">
         <v>73.73119876596172</v>
       </c>
       <c r="O27" t="n">
-        <v>167.7305220047242</v>
+        <v>45.0054047375267</v>
       </c>
       <c r="P27" t="n">
         <v>16.5924553077495</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>54.53167361254212</v>
+        <v>54.53167361254213</v>
       </c>
       <c r="L28" t="n">
         <v>125.8690753056997</v>
@@ -36832,16 +36832,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>167.7305220047242</v>
+        <v>161.3331207397891</v>
       </c>
       <c r="L29" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>167.7305220047242</v>
       </c>
       <c r="N29" t="n">
-        <v>142.7529484611738</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="O29" t="n">
         <v>18.20058275548055</v>
@@ -36850,7 +36850,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>149.1503497261089</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>12.97871975037319</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>167.7305220047242</v>
       </c>
       <c r="M30" t="n">
-        <v>57.65115739256998</v>
+        <v>144.361075908905</v>
       </c>
       <c r="N30" t="n">
-        <v>73.73119876596172</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="O30" t="n">
         <v>167.7305220047242</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>54.53167361254201</v>
+        <v>54.53167361254212</v>
       </c>
       <c r="L31" t="n">
         <v>125.8690753056997</v>
@@ -37005,7 +37005,7 @@
         <v>118.0205363832597</v>
       </c>
       <c r="P31" t="n">
-        <v>77.22869267591113</v>
+        <v>77.22869267591116</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>113.1276061787353</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="L32" t="n">
-        <v>167.7305220047242</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>167.7305220047242</v>
+        <v>28.41938550431334</v>
       </c>
       <c r="N32" t="n">
         <v>167.7305220047242</v>
       </c>
       <c r="O32" t="n">
-        <v>160.9535312166544</v>
+        <v>19.4065395336059</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>167.7305220047242</v>
       </c>
       <c r="M33" t="n">
+        <v>144.361075908905</v>
+      </c>
+      <c r="N33" t="n">
         <v>167.7305220047242</v>
       </c>
-      <c r="N33" t="n">
-        <v>115.9481264791277</v>
-      </c>
       <c r="O33" t="n">
-        <v>45.0054047375267</v>
+        <v>167.7305220047242</v>
       </c>
       <c r="P33" t="n">
-        <v>167.7305220047242</v>
+        <v>16.5924553077495</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>54.53167361254212</v>
+        <v>54.53167361254213</v>
       </c>
       <c r="L34" t="n">
         <v>125.8690753056997</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>113.1276061787353</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>119.6359461676297</v>
+        <v>1.674564386161884</v>
       </c>
       <c r="M35" t="n">
-        <v>119.6359461676297</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="N35" t="n">
-        <v>119.6359461676297</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="O35" t="n">
-        <v>114.8021705648971</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>119.6359461676297</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="M36" t="n">
-        <v>99.10905792128888</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="N36" t="n">
-        <v>73.73119876596172</v>
+        <v>98.20971525714764</v>
       </c>
       <c r="O36" t="n">
-        <v>45.0054047375267</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="P36" t="n">
         <v>16.5924553077495</v>
       </c>
       <c r="Q36" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,13 +37467,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>119.6359461676297</v>
+        <v>39.18888767335588</v>
       </c>
       <c r="M37" t="n">
-        <v>39.18888767335594</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="N37" t="n">
-        <v>119.6359461676297</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="O37" t="n">
         <v>118.0205363832597</v>
@@ -37543,25 +37543,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>119.6359461676297</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="N38" t="n">
-        <v>114.8021705648972</v>
+        <v>33.53965337719757</v>
       </c>
       <c r="O38" t="n">
-        <v>119.6359461676297</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>81.26251718769957</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>73.74835079088855</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>32.64807644357563</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="M39" t="n">
-        <v>57.65115739256998</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="N39" t="n">
         <v>73.73119876596172</v>
       </c>
       <c r="O39" t="n">
-        <v>116.2952795071606</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="P39" t="n">
-        <v>119.6359461676297</v>
+        <v>41.0709717989354</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>54.53167361254212</v>
       </c>
       <c r="L40" t="n">
-        <v>119.6359461676297</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>116.4175803492671</v>
+        <v>104.2931602284434</v>
       </c>
       <c r="N40" t="n">
-        <v>119.6359461676297</v>
+        <v>119.6359461676296</v>
       </c>
       <c r="O40" t="n">
         <v>118.0205363832597</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>77.22869267591113</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37786,19 +37786,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>110.0793646121541</v>
+        <v>87.43113076123302</v>
       </c>
       <c r="N41" t="n">
-        <v>105.6317135167135</v>
+        <v>110.0793646121542</v>
       </c>
       <c r="O41" t="n">
-        <v>110.0793646121541</v>
+        <v>18.20058275548055</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>110.0793646121542</v>
       </c>
       <c r="Q41" t="n">
-        <v>110.0793646121541</v>
+        <v>110.0793646121542</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>73.74835079088855</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>110.0793646121541</v>
+        <v>110.0793646121542</v>
       </c>
       <c r="M42" t="n">
-        <v>89.03925820896403</v>
+        <v>110.0793646121542</v>
       </c>
       <c r="N42" t="n">
-        <v>110.0793646121541</v>
+        <v>73.73119876596172</v>
       </c>
       <c r="O42" t="n">
-        <v>110.0793646121541</v>
+        <v>45.0054047375267</v>
       </c>
       <c r="P42" t="n">
-        <v>16.5924553077495</v>
+        <v>23.22612383449075</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37941,19 +37941,19 @@
         <v>54.53167361254212</v>
       </c>
       <c r="L43" t="n">
-        <v>110.0793646121541</v>
+        <v>110.0793646121542</v>
       </c>
       <c r="M43" t="n">
-        <v>83.95071184041434</v>
+        <v>110.0793646121542</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>110.0793646121542</v>
       </c>
       <c r="O43" t="n">
-        <v>110.0793646121541</v>
+        <v>51.10003990417145</v>
       </c>
       <c r="P43" t="n">
-        <v>77.22869267591113</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>9.070544748658506</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>28.41938550431334</v>
       </c>
       <c r="O44" t="n">
-        <v>27.27112750413906</v>
+        <v>18.20058275548055</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>10.67867219638957</v>
+        <v>28.41938550431334</v>
       </c>
       <c r="M45" t="n">
         <v>28.41938550431334</v>
@@ -38108,7 +38108,7 @@
         <v>28.41938550431334</v>
       </c>
       <c r="O45" t="n">
-        <v>28.41938550431334</v>
+        <v>10.67867219638957</v>
       </c>
       <c r="P45" t="n">
         <v>16.5924553077495</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>28.41938550431334</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>28.41938550431334</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>28.41938550431334</v>
       </c>
       <c r="N46" t="n">
+        <v>28.41938550431334</v>
+      </c>
+      <c r="O46" t="n">
+        <v>28.41938550431334</v>
+      </c>
+      <c r="P46" t="n">
         <v>27.27112750413906</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
